--- a/_FUZZY-at-local-LISTO.xlsx
+++ b/_FUZZY-at-local-LISTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\egtpi-gs-at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A059FF89-2AC5-4B35-BECD-28C225E3253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B6EC-D7B7-48E1-830A-E4228AC05D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$854</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$921</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7375" uniqueCount="1249">
   <si>
     <t>UBIGEO</t>
   </si>
@@ -3556,12 +3556,6 @@
     <t>PUCACACA</t>
   </si>
   <si>
-    <t>030604</t>
-  </si>
-  <si>
-    <t>HUACCANA</t>
-  </si>
-  <si>
     <t>221006</t>
   </si>
   <si>
@@ -3680,6 +3674,102 @@
   </si>
   <si>
     <t>OROPESA</t>
+  </si>
+  <si>
+    <t>250104</t>
+  </si>
+  <si>
+    <t>MASISEA</t>
+  </si>
+  <si>
+    <t>RAYMONDI</t>
+  </si>
+  <si>
+    <t>250105</t>
+  </si>
+  <si>
+    <t>YARINACOCHA</t>
+  </si>
+  <si>
+    <t>021907</t>
+  </si>
+  <si>
+    <t>QUICHES</t>
+  </si>
+  <si>
+    <t>130704</t>
+  </si>
+  <si>
+    <t>PACASMAYO</t>
+  </si>
+  <si>
+    <t>021202</t>
+  </si>
+  <si>
+    <t>021210</t>
+  </si>
+  <si>
+    <t>YURACMARCA</t>
+  </si>
+  <si>
+    <t>060601</t>
+  </si>
+  <si>
+    <t>CUTERVO</t>
+  </si>
+  <si>
+    <t>160504</t>
+  </si>
+  <si>
+    <t>REQUENA</t>
+  </si>
+  <si>
+    <t>EMILIO SAN MARTIN</t>
+  </si>
+  <si>
+    <t>220710</t>
+  </si>
+  <si>
+    <t>TRES UNIDOS</t>
+  </si>
+  <si>
+    <t>140106</t>
+  </si>
+  <si>
+    <t>LA VICTORIA</t>
+  </si>
+  <si>
+    <t>140101</t>
+  </si>
+  <si>
+    <t>SANTIAGO DE CHUCA</t>
+  </si>
+  <si>
+    <t>160501</t>
+  </si>
+  <si>
+    <t>160108</t>
+  </si>
+  <si>
+    <t>PUNCHANA</t>
+  </si>
+  <si>
+    <t>010607</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DE MENDOZA</t>
+  </si>
+  <si>
+    <t>MARISCAL BENAVIDES</t>
+  </si>
+  <si>
+    <t>050404</t>
+  </si>
+  <si>
+    <t>IGUAIN</t>
+  </si>
+  <si>
+    <t>160113</t>
   </si>
 </sst>
 </file>
@@ -4067,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M895"/>
+  <dimension ref="A1:M924"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="M877" sqref="M877:M895"/>
+    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
+      <selection activeCell="M922" sqref="M922:M924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33805,28 +33895,28 @@
     </row>
     <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1177</v>
+        <v>182</v>
       </c>
       <c r="B726" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="C726" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D726" t="s">
-        <v>1178</v>
+        <v>183</v>
       </c>
       <c r="E726" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="F726" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G726" t="s">
-        <v>1178</v>
+        <v>183</v>
       </c>
       <c r="H726">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="I726">
         <v>0</v>
@@ -33846,7 +33936,7 @@
     </row>
     <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B727" t="s">
         <v>158</v>
@@ -33855,7 +33945,7 @@
         <v>158</v>
       </c>
       <c r="D727" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E727" t="s">
         <v>158</v>
@@ -33864,10 +33954,10 @@
         <v>158</v>
       </c>
       <c r="G727" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H727">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="I727">
         <v>0</v>
@@ -33887,28 +33977,28 @@
     </row>
     <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>160</v>
+        <v>1150</v>
       </c>
       <c r="B728" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="C728" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="D728" t="s">
-        <v>158</v>
+        <v>1151</v>
       </c>
       <c r="E728" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="F728" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="G728" t="s">
-        <v>158</v>
+        <v>1151</v>
       </c>
       <c r="H728">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="I728">
         <v>0</v>
@@ -33928,28 +34018,28 @@
     </row>
     <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1150</v>
+        <v>1177</v>
       </c>
       <c r="B729" t="s">
         <v>785</v>
       </c>
       <c r="C729" t="s">
-        <v>785</v>
+        <v>861</v>
       </c>
       <c r="D729" t="s">
-        <v>1151</v>
+        <v>1178</v>
       </c>
       <c r="E729" t="s">
         <v>785</v>
       </c>
       <c r="F729" t="s">
-        <v>785</v>
+        <v>861</v>
       </c>
       <c r="G729" t="s">
-        <v>1151</v>
+        <v>1178</v>
       </c>
       <c r="H729">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I729">
         <v>0</v>
@@ -33969,28 +34059,28 @@
     </row>
     <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1179</v>
+        <v>163</v>
       </c>
       <c r="B730" t="s">
-        <v>785</v>
+        <v>158</v>
       </c>
       <c r="C730" t="s">
-        <v>861</v>
+        <v>158</v>
       </c>
       <c r="D730" t="s">
-        <v>1180</v>
+        <v>164</v>
       </c>
       <c r="E730" t="s">
-        <v>785</v>
+        <v>158</v>
       </c>
       <c r="F730" t="s">
-        <v>861</v>
+        <v>158</v>
       </c>
       <c r="G730" t="s">
-        <v>1180</v>
+        <v>164</v>
       </c>
       <c r="H730">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I730">
         <v>0</v>
@@ -34010,28 +34100,28 @@
     </row>
     <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>163</v>
+        <v>1158</v>
       </c>
       <c r="B731" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="C731" t="s">
-        <v>158</v>
+        <v>791</v>
       </c>
       <c r="D731" t="s">
-        <v>164</v>
+        <v>1159</v>
       </c>
       <c r="E731" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="F731" t="s">
-        <v>158</v>
+        <v>791</v>
       </c>
       <c r="G731" t="s">
-        <v>164</v>
+        <v>1159</v>
       </c>
       <c r="H731">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="I731">
         <v>0</v>
@@ -34051,28 +34141,28 @@
     </row>
     <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1158</v>
+        <v>831</v>
       </c>
       <c r="B732" t="s">
         <v>785</v>
       </c>
       <c r="C732" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="D732" t="s">
-        <v>1159</v>
+        <v>832</v>
       </c>
       <c r="E732" t="s">
         <v>785</v>
       </c>
       <c r="F732" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="G732" t="s">
-        <v>1159</v>
+        <v>832</v>
       </c>
       <c r="H732">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I732">
         <v>0</v>
@@ -34092,28 +34182,28 @@
     </row>
     <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B733" t="s">
         <v>785</v>
       </c>
       <c r="C733" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D733" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="E733" t="s">
         <v>785</v>
       </c>
       <c r="F733" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="G733" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="H733">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="I733">
         <v>0</v>
@@ -34133,28 +34223,28 @@
     </row>
     <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>822</v>
+        <v>1047</v>
       </c>
       <c r="B734" t="s">
-        <v>785</v>
+        <v>158</v>
       </c>
       <c r="C734" t="s">
-        <v>818</v>
+        <v>196</v>
       </c>
       <c r="D734" t="s">
-        <v>823</v>
+        <v>1048</v>
       </c>
       <c r="E734" t="s">
-        <v>785</v>
+        <v>158</v>
       </c>
       <c r="F734" t="s">
-        <v>818</v>
+        <v>196</v>
       </c>
       <c r="G734" t="s">
-        <v>823</v>
+        <v>1048</v>
       </c>
       <c r="H734">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I734">
         <v>0</v>
@@ -34174,7 +34264,7 @@
     </row>
     <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B735" t="s">
         <v>158</v>
@@ -34183,7 +34273,7 @@
         <v>196</v>
       </c>
       <c r="D735" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E735" t="s">
         <v>158</v>
@@ -34192,10 +34282,10 @@
         <v>196</v>
       </c>
       <c r="G735" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="H735">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I735">
         <v>0</v>
@@ -34215,28 +34305,28 @@
     </row>
     <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1049</v>
+        <v>856</v>
       </c>
       <c r="B736" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="C736" t="s">
-        <v>196</v>
+        <v>849</v>
       </c>
       <c r="D736" t="s">
-        <v>1050</v>
+        <v>849</v>
       </c>
       <c r="E736" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="F736" t="s">
-        <v>196</v>
+        <v>849</v>
       </c>
       <c r="G736" t="s">
-        <v>1050</v>
+        <v>849</v>
       </c>
       <c r="H736">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="I736">
         <v>0</v>
@@ -34256,7 +34346,7 @@
     </row>
     <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B737" t="s">
         <v>785</v>
@@ -34265,7 +34355,7 @@
         <v>849</v>
       </c>
       <c r="D737" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E737" t="s">
         <v>785</v>
@@ -34274,10 +34364,10 @@
         <v>849</v>
       </c>
       <c r="G737" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H737">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="I737">
         <v>0</v>
@@ -34297,7 +34387,7 @@
     </row>
     <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B738" t="s">
         <v>785</v>
@@ -34306,7 +34396,7 @@
         <v>849</v>
       </c>
       <c r="D738" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="E738" t="s">
         <v>785</v>
@@ -34315,10 +34405,10 @@
         <v>849</v>
       </c>
       <c r="G738" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="H738">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="I738">
         <v>0</v>
@@ -34338,28 +34428,28 @@
     </row>
     <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="B739" t="s">
-        <v>785</v>
+        <v>865</v>
       </c>
       <c r="C739" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="D739" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="E739" t="s">
-        <v>785</v>
+        <v>865</v>
       </c>
       <c r="F739" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="G739" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="H739">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="I739">
         <v>0</v>
@@ -34379,28 +34469,28 @@
     </row>
     <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>864</v>
+        <v>592</v>
       </c>
       <c r="B740" t="s">
-        <v>865</v>
+        <v>585</v>
       </c>
       <c r="C740" t="s">
-        <v>866</v>
+        <v>586</v>
       </c>
       <c r="D740" t="s">
-        <v>867</v>
+        <v>593</v>
       </c>
       <c r="E740" t="s">
-        <v>865</v>
+        <v>585</v>
       </c>
       <c r="F740" t="s">
-        <v>866</v>
+        <v>586</v>
       </c>
       <c r="G740" t="s">
-        <v>867</v>
+        <v>593</v>
       </c>
       <c r="H740">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="I740">
         <v>0</v>
@@ -34420,28 +34510,28 @@
     </row>
     <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>592</v>
+        <v>841</v>
       </c>
       <c r="B741" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="C741" t="s">
-        <v>586</v>
+        <v>838</v>
       </c>
       <c r="D741" t="s">
-        <v>593</v>
+        <v>842</v>
       </c>
       <c r="E741" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="F741" t="s">
-        <v>586</v>
+        <v>838</v>
       </c>
       <c r="G741" t="s">
-        <v>593</v>
+        <v>842</v>
       </c>
       <c r="H741">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="I741">
         <v>0</v>
@@ -34461,28 +34551,28 @@
     </row>
     <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>841</v>
+        <v>632</v>
       </c>
       <c r="B742" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="C742" t="s">
-        <v>838</v>
+        <v>585</v>
       </c>
       <c r="D742" t="s">
-        <v>842</v>
+        <v>633</v>
       </c>
       <c r="E742" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="F742" t="s">
-        <v>838</v>
+        <v>585</v>
       </c>
       <c r="G742" t="s">
-        <v>842</v>
+        <v>633</v>
       </c>
       <c r="H742">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I742">
         <v>0</v>
@@ -34502,28 +34592,28 @@
     </row>
     <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="B743" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="C743" t="s">
-        <v>585</v>
+        <v>793</v>
       </c>
       <c r="D743" t="s">
-        <v>633</v>
+        <v>798</v>
       </c>
       <c r="E743" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="F743" t="s">
-        <v>585</v>
+        <v>793</v>
       </c>
       <c r="G743" t="s">
-        <v>633</v>
+        <v>798</v>
       </c>
       <c r="H743">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I743">
         <v>0</v>
@@ -34543,28 +34633,28 @@
     </row>
     <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>797</v>
+        <v>1051</v>
       </c>
       <c r="B744" t="s">
-        <v>785</v>
+        <v>317</v>
       </c>
       <c r="C744" t="s">
-        <v>793</v>
+        <v>317</v>
       </c>
       <c r="D744" t="s">
-        <v>798</v>
+        <v>1052</v>
       </c>
       <c r="E744" t="s">
-        <v>785</v>
+        <v>317</v>
       </c>
       <c r="F744" t="s">
-        <v>793</v>
+        <v>317</v>
       </c>
       <c r="G744" t="s">
-        <v>798</v>
+        <v>1052</v>
       </c>
       <c r="H744">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="I744">
         <v>0</v>
@@ -34584,28 +34674,28 @@
     </row>
     <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1051</v>
+        <v>831</v>
       </c>
       <c r="B745" t="s">
-        <v>317</v>
+        <v>785</v>
       </c>
       <c r="C745" t="s">
-        <v>317</v>
+        <v>827</v>
       </c>
       <c r="D745" t="s">
-        <v>1052</v>
+        <v>832</v>
       </c>
       <c r="E745" t="s">
-        <v>317</v>
+        <v>785</v>
       </c>
       <c r="F745" t="s">
-        <v>317</v>
+        <v>827</v>
       </c>
       <c r="G745" t="s">
-        <v>1052</v>
+        <v>832</v>
       </c>
       <c r="H745">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I745">
         <v>0</v>
@@ -34625,28 +34715,28 @@
     </row>
     <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>831</v>
+        <v>600</v>
       </c>
       <c r="B746" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="C746" t="s">
-        <v>827</v>
+        <v>586</v>
       </c>
       <c r="D746" t="s">
-        <v>832</v>
+        <v>601</v>
       </c>
       <c r="E746" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="F746" t="s">
-        <v>827</v>
+        <v>586</v>
       </c>
       <c r="G746" t="s">
-        <v>832</v>
+        <v>601</v>
       </c>
       <c r="H746">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="I746">
         <v>0</v>
@@ -34666,28 +34756,28 @@
     </row>
     <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>600</v>
+        <v>1053</v>
       </c>
       <c r="B747" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="C747" t="s">
-        <v>586</v>
+        <v>827</v>
       </c>
       <c r="D747" t="s">
-        <v>601</v>
+        <v>827</v>
       </c>
       <c r="E747" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="F747" t="s">
-        <v>586</v>
+        <v>827</v>
       </c>
       <c r="G747" t="s">
-        <v>601</v>
+        <v>827</v>
       </c>
       <c r="H747">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I747">
         <v>0</v>
@@ -34728,7 +34818,7 @@
         <v>827</v>
       </c>
       <c r="H748">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I748">
         <v>0</v>
@@ -34748,28 +34838,28 @@
     </row>
     <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1053</v>
+        <v>606</v>
       </c>
       <c r="B749" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="C749" t="s">
-        <v>827</v>
+        <v>586</v>
       </c>
       <c r="D749" t="s">
-        <v>827</v>
+        <v>607</v>
       </c>
       <c r="E749" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="F749" t="s">
-        <v>827</v>
+        <v>586</v>
       </c>
       <c r="G749" t="s">
-        <v>827</v>
+        <v>607</v>
       </c>
       <c r="H749">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="I749">
         <v>0</v>
@@ -34789,28 +34879,28 @@
     </row>
     <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>606</v>
+        <v>157</v>
       </c>
       <c r="B750" t="s">
-        <v>585</v>
+        <v>158</v>
       </c>
       <c r="C750" t="s">
-        <v>586</v>
+        <v>158</v>
       </c>
       <c r="D750" t="s">
-        <v>607</v>
+        <v>159</v>
       </c>
       <c r="E750" t="s">
-        <v>585</v>
+        <v>158</v>
       </c>
       <c r="F750" t="s">
-        <v>586</v>
+        <v>158</v>
       </c>
       <c r="G750" t="s">
-        <v>607</v>
+        <v>1054</v>
       </c>
       <c r="H750">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="I750">
         <v>0</v>
@@ -34819,10 +34909,10 @@
         <v>0</v>
       </c>
       <c r="K750">
-        <v>0</v>
+        <v>0.20915032679738571</v>
       </c>
       <c r="L750">
-        <v>0</v>
+        <v>0.20915032679738571</v>
       </c>
       <c r="M750" t="s">
         <v>932</v>
@@ -34830,28 +34920,28 @@
     </row>
     <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>157</v>
+        <v>1055</v>
       </c>
       <c r="B751" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C751" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="D751" t="s">
-        <v>159</v>
+        <v>1056</v>
       </c>
       <c r="E751" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="F751" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="G751" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H751">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="I751">
         <v>0</v>
@@ -34860,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="K751">
-        <v>0.20915032679738571</v>
+        <v>0</v>
       </c>
       <c r="L751">
-        <v>0.20915032679738571</v>
+        <v>0</v>
       </c>
       <c r="M751" t="s">
         <v>932</v>
@@ -34892,7 +34982,7 @@
         <v>1056</v>
       </c>
       <c r="H752">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I752">
         <v>0</v>
@@ -34933,7 +35023,7 @@
         <v>1056</v>
       </c>
       <c r="H753">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="I753">
         <v>0</v>
@@ -34953,28 +35043,28 @@
     </row>
     <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1055</v>
+        <v>478</v>
       </c>
       <c r="B754" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="C754" t="s">
-        <v>296</v>
+        <v>476</v>
       </c>
       <c r="D754" t="s">
-        <v>1056</v>
+        <v>479</v>
       </c>
       <c r="E754" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="F754" t="s">
-        <v>296</v>
+        <v>476</v>
       </c>
       <c r="G754" t="s">
-        <v>1056</v>
+        <v>479</v>
       </c>
       <c r="H754">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="I754">
         <v>0</v>
@@ -34994,28 +35084,28 @@
     </row>
     <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>478</v>
+        <v>806</v>
       </c>
       <c r="B755" t="s">
-        <v>475</v>
+        <v>785</v>
       </c>
       <c r="C755" t="s">
-        <v>476</v>
+        <v>801</v>
       </c>
       <c r="D755" t="s">
-        <v>479</v>
+        <v>807</v>
       </c>
       <c r="E755" t="s">
-        <v>475</v>
+        <v>785</v>
       </c>
       <c r="F755" t="s">
-        <v>476</v>
+        <v>801</v>
       </c>
       <c r="G755" t="s">
-        <v>479</v>
+        <v>807</v>
       </c>
       <c r="H755">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="I755">
         <v>0</v>
@@ -35035,28 +35125,28 @@
     </row>
     <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>806</v>
+        <v>602</v>
       </c>
       <c r="B756" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="C756" t="s">
-        <v>801</v>
+        <v>586</v>
       </c>
       <c r="D756" t="s">
-        <v>807</v>
+        <v>603</v>
       </c>
       <c r="E756" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="F756" t="s">
-        <v>801</v>
+        <v>586</v>
       </c>
       <c r="G756" t="s">
-        <v>807</v>
+        <v>603</v>
       </c>
       <c r="H756">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="I756">
         <v>0</v>
@@ -35076,28 +35166,28 @@
     </row>
     <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>602</v>
+        <v>820</v>
       </c>
       <c r="B757" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="C757" t="s">
-        <v>586</v>
+        <v>818</v>
       </c>
       <c r="D757" t="s">
-        <v>603</v>
+        <v>821</v>
       </c>
       <c r="E757" t="s">
-        <v>585</v>
+        <v>785</v>
       </c>
       <c r="F757" t="s">
-        <v>586</v>
+        <v>818</v>
       </c>
       <c r="G757" t="s">
-        <v>603</v>
+        <v>821</v>
       </c>
       <c r="H757">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="I757">
         <v>0</v>
@@ -35117,28 +35207,28 @@
     </row>
     <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>820</v>
+        <v>1152</v>
       </c>
       <c r="B758" t="s">
         <v>785</v>
       </c>
       <c r="C758" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="D758" t="s">
-        <v>821</v>
+        <v>1153</v>
       </c>
       <c r="E758" t="s">
         <v>785</v>
       </c>
       <c r="F758" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="G758" t="s">
-        <v>821</v>
+        <v>1153</v>
       </c>
       <c r="H758">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="I758">
         <v>0</v>
@@ -35158,28 +35248,28 @@
     </row>
     <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1152</v>
+        <v>1057</v>
       </c>
       <c r="B759" t="s">
-        <v>785</v>
+        <v>42</v>
       </c>
       <c r="C759" t="s">
-        <v>849</v>
+        <v>74</v>
       </c>
       <c r="D759" t="s">
-        <v>1153</v>
+        <v>1058</v>
       </c>
       <c r="E759" t="s">
-        <v>785</v>
+        <v>42</v>
       </c>
       <c r="F759" t="s">
-        <v>849</v>
+        <v>74</v>
       </c>
       <c r="G759" t="s">
-        <v>1153</v>
+        <v>1058</v>
       </c>
       <c r="H759">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="I759">
         <v>0</v>
@@ -35199,28 +35289,28 @@
     </row>
     <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1057</v>
+        <v>459</v>
       </c>
       <c r="B760" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="C760" t="s">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="D760" t="s">
-        <v>1058</v>
+        <v>460</v>
       </c>
       <c r="E760" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="F760" t="s">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="G760" t="s">
-        <v>1058</v>
+        <v>460</v>
       </c>
       <c r="H760">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="I760">
         <v>0</v>
@@ -35240,7 +35330,7 @@
     </row>
     <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B761" t="s">
         <v>432</v>
@@ -35249,7 +35339,7 @@
         <v>457</v>
       </c>
       <c r="D761" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E761" t="s">
         <v>432</v>
@@ -35258,10 +35348,10 @@
         <v>457</v>
       </c>
       <c r="G761" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H761">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="I761">
         <v>0</v>
@@ -35281,7 +35371,7 @@
     </row>
     <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>456</v>
+        <v>1059</v>
       </c>
       <c r="B762" t="s">
         <v>432</v>
@@ -35290,7 +35380,7 @@
         <v>457</v>
       </c>
       <c r="D762" t="s">
-        <v>458</v>
+        <v>1060</v>
       </c>
       <c r="E762" t="s">
         <v>432</v>
@@ -35299,10 +35389,10 @@
         <v>457</v>
       </c>
       <c r="G762" t="s">
-        <v>458</v>
+        <v>1060</v>
       </c>
       <c r="H762">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="I762">
         <v>0</v>
@@ -35322,7 +35412,7 @@
     </row>
     <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1059</v>
+        <v>461</v>
       </c>
       <c r="B763" t="s">
         <v>432</v>
@@ -35331,7 +35421,7 @@
         <v>457</v>
       </c>
       <c r="D763" t="s">
-        <v>1060</v>
+        <v>462</v>
       </c>
       <c r="E763" t="s">
         <v>432</v>
@@ -35340,10 +35430,10 @@
         <v>457</v>
       </c>
       <c r="G763" t="s">
-        <v>1060</v>
+        <v>462</v>
       </c>
       <c r="H763">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="I763">
         <v>0</v>
@@ -35363,28 +35453,28 @@
     </row>
     <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>461</v>
+        <v>1061</v>
       </c>
       <c r="B764" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="C764" t="s">
-        <v>457</v>
+        <v>1062</v>
       </c>
       <c r="D764" t="s">
-        <v>462</v>
+        <v>1063</v>
       </c>
       <c r="E764" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="F764" t="s">
-        <v>457</v>
+        <v>1062</v>
       </c>
       <c r="G764" t="s">
-        <v>462</v>
+        <v>1063</v>
       </c>
       <c r="H764">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="I764">
         <v>0</v>
@@ -35404,28 +35494,28 @@
     </row>
     <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="B765" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="C765" t="s">
-        <v>1062</v>
+        <v>968</v>
       </c>
       <c r="D765" t="s">
-        <v>1063</v>
+        <v>347</v>
       </c>
       <c r="E765" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="F765" t="s">
-        <v>1062</v>
+        <v>968</v>
       </c>
       <c r="G765" t="s">
-        <v>1063</v>
+        <v>347</v>
       </c>
       <c r="H765">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I765">
         <v>0</v>
@@ -35445,7 +35535,7 @@
     </row>
     <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B766" t="s">
         <v>42</v>
@@ -35454,7 +35544,7 @@
         <v>968</v>
       </c>
       <c r="D766" t="s">
-        <v>347</v>
+        <v>1066</v>
       </c>
       <c r="E766" t="s">
         <v>42</v>
@@ -35463,10 +35553,10 @@
         <v>968</v>
       </c>
       <c r="G766" t="s">
-        <v>347</v>
+        <v>1066</v>
       </c>
       <c r="H766">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="I766">
         <v>0</v>
@@ -35486,28 +35576,28 @@
     </row>
     <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1065</v>
+        <v>481</v>
       </c>
       <c r="B767" t="s">
-        <v>42</v>
+        <v>475</v>
       </c>
       <c r="C767" t="s">
-        <v>968</v>
+        <v>475</v>
       </c>
       <c r="D767" t="s">
-        <v>1066</v>
+        <v>482</v>
       </c>
       <c r="E767" t="s">
-        <v>42</v>
+        <v>475</v>
       </c>
       <c r="F767" t="s">
-        <v>968</v>
+        <v>475</v>
       </c>
       <c r="G767" t="s">
-        <v>1066</v>
+        <v>482</v>
       </c>
       <c r="H767">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="I767">
         <v>0</v>
@@ -35527,28 +35617,28 @@
     </row>
     <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>481</v>
+        <v>1067</v>
       </c>
       <c r="B768" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="C768" t="s">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="D768" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="E768" t="s">
-        <v>475</v>
+        <v>296</v>
       </c>
       <c r="F768" t="s">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="G768" t="s">
-        <v>482</v>
+        <v>1068</v>
       </c>
       <c r="H768">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I768">
         <v>0</v>
@@ -35568,28 +35658,28 @@
     </row>
     <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1067</v>
+        <v>299</v>
       </c>
       <c r="B769" t="s">
         <v>296</v>
       </c>
       <c r="C769" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="D769" t="s">
-        <v>1068</v>
+        <v>297</v>
       </c>
       <c r="E769" t="s">
         <v>296</v>
       </c>
       <c r="F769" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="G769" t="s">
-        <v>1068</v>
+        <v>297</v>
       </c>
       <c r="H769">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="I769">
         <v>0</v>
@@ -35630,7 +35720,7 @@
         <v>297</v>
       </c>
       <c r="H770">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I770">
         <v>0</v>
@@ -35650,28 +35740,28 @@
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="B771" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="C771" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="D771" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="E771" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="F771" t="s">
-        <v>297</v>
+        <v>158</v>
       </c>
       <c r="G771" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="H771">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="I771">
         <v>0</v>
@@ -35691,7 +35781,7 @@
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B772" t="s">
         <v>158</v>
@@ -35700,7 +35790,7 @@
         <v>158</v>
       </c>
       <c r="D772" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E772" t="s">
         <v>158</v>
@@ -35709,10 +35799,10 @@
         <v>158</v>
       </c>
       <c r="G772" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="H772">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="I772">
         <v>0</v>
@@ -35732,7 +35822,7 @@
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B773" t="s">
         <v>158</v>
@@ -35741,7 +35831,7 @@
         <v>158</v>
       </c>
       <c r="D773" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E773" t="s">
         <v>158</v>
@@ -35750,10 +35840,10 @@
         <v>158</v>
       </c>
       <c r="G773" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H773">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I773">
         <v>0</v>
@@ -35773,7 +35863,7 @@
     </row>
     <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>180</v>
+        <v>1071</v>
       </c>
       <c r="B774" t="s">
         <v>158</v>
@@ -35782,7 +35872,7 @@
         <v>158</v>
       </c>
       <c r="D774" t="s">
-        <v>181</v>
+        <v>1072</v>
       </c>
       <c r="E774" t="s">
         <v>158</v>
@@ -35791,10 +35881,10 @@
         <v>158</v>
       </c>
       <c r="G774" t="s">
-        <v>181</v>
+        <v>1072</v>
       </c>
       <c r="H774">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="I774">
         <v>0</v>
@@ -35814,7 +35904,7 @@
     </row>
     <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1071</v>
+        <v>169</v>
       </c>
       <c r="B775" t="s">
         <v>158</v>
@@ -35823,7 +35913,7 @@
         <v>158</v>
       </c>
       <c r="D775" t="s">
-        <v>1072</v>
+        <v>170</v>
       </c>
       <c r="E775" t="s">
         <v>158</v>
@@ -35832,10 +35922,10 @@
         <v>158</v>
       </c>
       <c r="G775" t="s">
-        <v>1072</v>
+        <v>170</v>
       </c>
       <c r="H775">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="I775">
         <v>0</v>
@@ -35855,7 +35945,7 @@
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B776" t="s">
         <v>158</v>
@@ -35864,7 +35954,7 @@
         <v>158</v>
       </c>
       <c r="D776" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="E776" t="s">
         <v>158</v>
@@ -35873,10 +35963,10 @@
         <v>158</v>
       </c>
       <c r="G776" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="H776">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I776">
         <v>0</v>
@@ -35896,7 +35986,7 @@
     </row>
     <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B777" t="s">
         <v>158</v>
@@ -35905,7 +35995,7 @@
         <v>158</v>
       </c>
       <c r="D777" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E777" t="s">
         <v>158</v>
@@ -35914,10 +36004,10 @@
         <v>158</v>
       </c>
       <c r="G777" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="H777">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="I777">
         <v>0</v>
@@ -35937,7 +36027,7 @@
     </row>
     <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B778" t="s">
         <v>158</v>
@@ -35946,7 +36036,7 @@
         <v>158</v>
       </c>
       <c r="D778" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E778" t="s">
         <v>158</v>
@@ -35955,10 +36045,10 @@
         <v>158</v>
       </c>
       <c r="G778" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="H778">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I778">
         <v>0</v>
@@ -35967,18 +36057,18 @@
         <v>0</v>
       </c>
       <c r="K778">
-        <v>0</v>
+        <v>0.39523809523809528</v>
       </c>
       <c r="L778">
-        <v>0</v>
-      </c>
-      <c r="M778" t="s">
-        <v>932</v>
+        <v>0.39523809523809528</v>
+      </c>
+      <c r="M778" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B779" t="s">
         <v>158</v>
@@ -35987,7 +36077,7 @@
         <v>158</v>
       </c>
       <c r="D779" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E779" t="s">
         <v>158</v>
@@ -35996,10 +36086,10 @@
         <v>158</v>
       </c>
       <c r="G779" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H779">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="I779">
         <v>0</v>
@@ -36008,39 +36098,39 @@
         <v>0</v>
       </c>
       <c r="K779">
-        <v>0.39523809523809528</v>
+        <v>0</v>
       </c>
       <c r="L779">
-        <v>0.39523809523809528</v>
-      </c>
-      <c r="M779" s="2" t="s">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="M779" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>182</v>
+        <v>840</v>
       </c>
       <c r="B780" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="C780" t="s">
-        <v>158</v>
+        <v>838</v>
       </c>
       <c r="D780" t="s">
-        <v>183</v>
+        <v>838</v>
       </c>
       <c r="E780" t="s">
-        <v>158</v>
+        <v>785</v>
       </c>
       <c r="F780" t="s">
-        <v>158</v>
+        <v>838</v>
       </c>
       <c r="G780" t="s">
-        <v>183</v>
+        <v>838</v>
       </c>
       <c r="H780">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="I780">
         <v>0</v>
@@ -36060,28 +36150,28 @@
     </row>
     <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>840</v>
+        <v>911</v>
       </c>
       <c r="B781" t="s">
-        <v>785</v>
+        <v>897</v>
       </c>
       <c r="C781" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="D781" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="E781" t="s">
-        <v>785</v>
+        <v>897</v>
       </c>
       <c r="F781" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="G781" t="s">
-        <v>838</v>
+        <v>897</v>
       </c>
       <c r="H781">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="I781">
         <v>0</v>
@@ -36101,7 +36191,7 @@
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B782" t="s">
         <v>897</v>
@@ -36110,7 +36200,7 @@
         <v>897</v>
       </c>
       <c r="D782" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="E782" t="s">
         <v>897</v>
@@ -36119,10 +36209,10 @@
         <v>897</v>
       </c>
       <c r="G782" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="H782">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="I782">
         <v>0</v>
@@ -36142,28 +36232,28 @@
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>905</v>
+        <v>667</v>
       </c>
       <c r="B783" t="s">
-        <v>897</v>
+        <v>664</v>
       </c>
       <c r="C783" t="s">
-        <v>897</v>
+        <v>665</v>
       </c>
       <c r="D783" t="s">
-        <v>906</v>
+        <v>668</v>
       </c>
       <c r="E783" t="s">
-        <v>897</v>
+        <v>664</v>
       </c>
       <c r="F783" t="s">
-        <v>897</v>
+        <v>665</v>
       </c>
       <c r="G783" t="s">
-        <v>906</v>
+        <v>669</v>
       </c>
       <c r="H783">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="I783">
         <v>0</v>
@@ -36172,10 +36262,10 @@
         <v>0</v>
       </c>
       <c r="K783">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L783">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M783" t="s">
         <v>932</v>
@@ -36183,7 +36273,7 @@
     </row>
     <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>667</v>
+        <v>1073</v>
       </c>
       <c r="B784" t="s">
         <v>664</v>
@@ -36192,7 +36282,7 @@
         <v>665</v>
       </c>
       <c r="D784" t="s">
-        <v>668</v>
+        <v>1074</v>
       </c>
       <c r="E784" t="s">
         <v>664</v>
@@ -36201,10 +36291,10 @@
         <v>665</v>
       </c>
       <c r="G784" t="s">
-        <v>669</v>
+        <v>1074</v>
       </c>
       <c r="H784">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="I784">
         <v>0</v>
@@ -36213,10 +36303,10 @@
         <v>0</v>
       </c>
       <c r="K784">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="L784">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="M784" t="s">
         <v>932</v>
@@ -36224,28 +36314,28 @@
     </row>
     <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1073</v>
+        <v>859</v>
       </c>
       <c r="B785" t="s">
-        <v>664</v>
+        <v>785</v>
       </c>
       <c r="C785" t="s">
-        <v>665</v>
+        <v>785</v>
       </c>
       <c r="D785" t="s">
-        <v>1074</v>
+        <v>860</v>
       </c>
       <c r="E785" t="s">
-        <v>664</v>
+        <v>785</v>
       </c>
       <c r="F785" t="s">
-        <v>665</v>
+        <v>785</v>
       </c>
       <c r="G785" t="s">
-        <v>1074</v>
+        <v>860</v>
       </c>
       <c r="H785">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I785">
         <v>0</v>
@@ -36265,28 +36355,28 @@
     </row>
     <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>859</v>
+        <v>61</v>
       </c>
       <c r="B786" t="s">
-        <v>785</v>
+        <v>42</v>
       </c>
       <c r="C786" t="s">
-        <v>785</v>
+        <v>57</v>
       </c>
       <c r="D786" t="s">
-        <v>860</v>
+        <v>57</v>
       </c>
       <c r="E786" t="s">
-        <v>785</v>
+        <v>42</v>
       </c>
       <c r="F786" t="s">
-        <v>785</v>
+        <v>57</v>
       </c>
       <c r="G786" t="s">
-        <v>860</v>
+        <v>57</v>
       </c>
       <c r="H786">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="I786">
         <v>0</v>
@@ -36306,28 +36396,28 @@
     </row>
     <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="B787" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C787" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="D787" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="E787" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="F787" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="G787" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="H787">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="I787">
         <v>0</v>
@@ -36347,28 +36437,28 @@
     </row>
     <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B788" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C788" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D788" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E788" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="F788" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G788" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H788">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="I788">
         <v>0</v>
@@ -36388,28 +36478,28 @@
     </row>
     <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B789" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C789" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D789" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E789" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F789" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="G789" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="H789">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="I789">
         <v>0</v>
@@ -36429,28 +36519,28 @@
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B790" t="s">
         <v>13</v>
       </c>
       <c r="C790" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D790" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E790" t="s">
         <v>13</v>
       </c>
       <c r="F790" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G790" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H790">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="I790">
         <v>0</v>
@@ -36470,7 +36560,7 @@
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B791" t="s">
         <v>13</v>
@@ -36479,7 +36569,7 @@
         <v>34</v>
       </c>
       <c r="D791" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E791" t="s">
         <v>13</v>
@@ -36488,10 +36578,10 @@
         <v>34</v>
       </c>
       <c r="G791" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H791">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="I791">
         <v>0</v>
@@ -36511,28 +36601,28 @@
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B792" t="s">
         <v>13</v>
       </c>
       <c r="C792" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D792" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E792" t="s">
         <v>13</v>
       </c>
       <c r="F792" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G792" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H792">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="I792">
         <v>0</v>
@@ -36552,28 +36642,28 @@
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>21</v>
+        <v>1075</v>
       </c>
       <c r="B793" t="s">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="C793" t="s">
-        <v>22</v>
+        <v>1027</v>
       </c>
       <c r="D793" t="s">
-        <v>23</v>
+        <v>1076</v>
       </c>
       <c r="E793" t="s">
-        <v>13</v>
+        <v>513</v>
       </c>
       <c r="F793" t="s">
-        <v>22</v>
+        <v>1027</v>
       </c>
       <c r="G793" t="s">
-        <v>23</v>
+        <v>1076</v>
       </c>
       <c r="H793">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="I793">
         <v>0</v>
@@ -36593,28 +36683,28 @@
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B794" t="s">
         <v>513</v>
       </c>
       <c r="C794" t="s">
-        <v>1027</v>
+        <v>520</v>
       </c>
       <c r="D794" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E794" t="s">
         <v>513</v>
       </c>
       <c r="F794" t="s">
-        <v>1027</v>
+        <v>520</v>
       </c>
       <c r="G794" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H794">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I794">
         <v>0</v>
@@ -36634,28 +36724,28 @@
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B795" t="s">
         <v>513</v>
       </c>
       <c r="C795" t="s">
-        <v>520</v>
+        <v>1027</v>
       </c>
       <c r="D795" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E795" t="s">
         <v>513</v>
       </c>
       <c r="F795" t="s">
-        <v>520</v>
+        <v>1027</v>
       </c>
       <c r="G795" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="H795">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I795">
         <v>0</v>
@@ -36675,28 +36765,28 @@
     </row>
     <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B796" t="s">
         <v>513</v>
       </c>
       <c r="C796" t="s">
-        <v>1027</v>
+        <v>514</v>
       </c>
       <c r="D796" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E796" t="s">
         <v>513</v>
       </c>
       <c r="F796" t="s">
-        <v>1027</v>
+        <v>514</v>
       </c>
       <c r="G796" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H796">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="I796">
         <v>0</v>
@@ -36716,28 +36806,28 @@
     </row>
     <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B797" t="s">
         <v>513</v>
       </c>
       <c r="C797" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D797" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E797" t="s">
         <v>513</v>
       </c>
       <c r="F797" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G797" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="H797">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="I797">
         <v>0</v>
@@ -36757,28 +36847,28 @@
     </row>
     <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B798" t="s">
         <v>513</v>
       </c>
       <c r="C798" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D798" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E798" t="s">
         <v>513</v>
       </c>
       <c r="F798" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G798" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H798">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="I798">
         <v>0</v>
@@ -36798,28 +36888,28 @@
     </row>
     <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1081</v>
+        <v>981</v>
       </c>
       <c r="B799" t="s">
         <v>513</v>
       </c>
       <c r="C799" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D799" t="s">
-        <v>1082</v>
+        <v>982</v>
       </c>
       <c r="E799" t="s">
         <v>513</v>
       </c>
       <c r="F799" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G799" t="s">
-        <v>1082</v>
+        <v>982</v>
       </c>
       <c r="H799">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I799">
         <v>0</v>
@@ -36839,28 +36929,28 @@
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>981</v>
+        <v>1085</v>
       </c>
       <c r="B800" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="C800" t="s">
-        <v>520</v>
+        <v>337</v>
       </c>
       <c r="D800" t="s">
-        <v>982</v>
+        <v>1086</v>
       </c>
       <c r="E800" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="F800" t="s">
-        <v>520</v>
+        <v>337</v>
       </c>
       <c r="G800" t="s">
-        <v>982</v>
+        <v>1086</v>
       </c>
       <c r="H800">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="I800">
         <v>0</v>
@@ -36880,28 +36970,28 @@
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1085</v>
+        <v>182</v>
       </c>
       <c r="B801" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="C801" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
       <c r="D801" t="s">
-        <v>1086</v>
+        <v>183</v>
       </c>
       <c r="E801" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="F801" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
       <c r="G801" t="s">
-        <v>1086</v>
+        <v>183</v>
       </c>
       <c r="H801">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="I801">
         <v>0</v>
@@ -36921,28 +37011,28 @@
     </row>
     <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>182</v>
+        <v>489</v>
       </c>
       <c r="B802" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="C802" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="D802" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="E802" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="F802" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="G802" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="H802">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="I802">
         <v>0</v>
@@ -36962,28 +37052,28 @@
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>489</v>
+        <v>1144</v>
       </c>
       <c r="B803" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
       <c r="C803" t="s">
-        <v>475</v>
+        <v>1062</v>
       </c>
       <c r="D803" t="s">
-        <v>240</v>
+        <v>1145</v>
       </c>
       <c r="E803" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
       <c r="F803" t="s">
-        <v>475</v>
+        <v>1062</v>
       </c>
       <c r="G803" t="s">
-        <v>240</v>
+        <v>1145</v>
       </c>
       <c r="H803">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="I803">
         <v>0</v>
@@ -37003,28 +37093,28 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1144</v>
+        <v>495</v>
       </c>
       <c r="B804" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="C804" t="s">
-        <v>1062</v>
+        <v>493</v>
       </c>
       <c r="D804" t="s">
-        <v>1145</v>
+        <v>496</v>
       </c>
       <c r="E804" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="F804" t="s">
-        <v>1062</v>
+        <v>493</v>
       </c>
       <c r="G804" t="s">
-        <v>1145</v>
+        <v>496</v>
       </c>
       <c r="H804">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="I804">
         <v>0</v>
@@ -37044,28 +37134,28 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>495</v>
+        <v>1087</v>
       </c>
       <c r="B805" t="s">
         <v>475</v>
       </c>
       <c r="C805" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D805" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="E805" t="s">
         <v>475</v>
       </c>
       <c r="F805" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G805" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="H805">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I805">
         <v>0</v>
@@ -37106,7 +37196,7 @@
         <v>464</v>
       </c>
       <c r="H806">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="I806">
         <v>0</v>
@@ -37126,28 +37216,28 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1087</v>
+        <v>113</v>
       </c>
       <c r="B807" t="s">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="C807" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="D807" t="s">
-        <v>464</v>
+        <v>114</v>
       </c>
       <c r="E807" t="s">
-        <v>475</v>
+        <v>109</v>
       </c>
       <c r="F807" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="G807" t="s">
-        <v>464</v>
+        <v>114</v>
       </c>
       <c r="H807">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="I807">
         <v>0</v>
@@ -37167,7 +37257,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B808" t="s">
         <v>109</v>
@@ -37176,7 +37266,7 @@
         <v>110</v>
       </c>
       <c r="D808" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E808" t="s">
         <v>109</v>
@@ -37185,10 +37275,10 @@
         <v>110</v>
       </c>
       <c r="G808" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H808">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="I808">
         <v>0</v>
@@ -37208,28 +37298,28 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>121</v>
+        <v>1088</v>
       </c>
       <c r="B809" t="s">
         <v>109</v>
       </c>
       <c r="C809" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D809" t="s">
-        <v>122</v>
+        <v>1089</v>
       </c>
       <c r="E809" t="s">
         <v>109</v>
       </c>
       <c r="F809" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G809" t="s">
-        <v>122</v>
+        <v>1089</v>
       </c>
       <c r="H809">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="I809">
         <v>0</v>
@@ -37249,28 +37339,28 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B810" t="s">
         <v>109</v>
       </c>
       <c r="C810" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D810" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E810" t="s">
         <v>109</v>
       </c>
       <c r="F810" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G810" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H810">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I810">
         <v>0</v>
@@ -37290,28 +37380,28 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1090</v>
+        <v>130</v>
       </c>
       <c r="B811" t="s">
         <v>109</v>
       </c>
       <c r="C811" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D811" t="s">
-        <v>1091</v>
+        <v>131</v>
       </c>
       <c r="E811" t="s">
         <v>109</v>
       </c>
       <c r="F811" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G811" t="s">
-        <v>1091</v>
+        <v>131</v>
       </c>
       <c r="H811">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="I811">
         <v>0</v>
@@ -37331,28 +37421,28 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>130</v>
+        <v>588</v>
       </c>
       <c r="B812" t="s">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="C812" t="s">
-        <v>126</v>
+        <v>586</v>
       </c>
       <c r="D812" t="s">
-        <v>131</v>
+        <v>589</v>
       </c>
       <c r="E812" t="s">
-        <v>109</v>
+        <v>585</v>
       </c>
       <c r="F812" t="s">
-        <v>126</v>
+        <v>586</v>
       </c>
       <c r="G812" t="s">
-        <v>131</v>
+        <v>589</v>
       </c>
       <c r="H812">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="I812">
         <v>0</v>
@@ -37372,7 +37462,7 @@
     </row>
     <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B813" t="s">
         <v>585</v>
@@ -37381,7 +37471,7 @@
         <v>586</v>
       </c>
       <c r="D813" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="E813" t="s">
         <v>585</v>
@@ -37390,10 +37480,10 @@
         <v>586</v>
       </c>
       <c r="G813" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="H813">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="I813">
         <v>0</v>
@@ -37413,28 +37503,28 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>598</v>
+        <v>1083</v>
       </c>
       <c r="B814" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="C814" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="D814" t="s">
-        <v>599</v>
+        <v>1084</v>
       </c>
       <c r="E814" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="F814" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="G814" t="s">
-        <v>599</v>
+        <v>1084</v>
       </c>
       <c r="H814">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="I814">
         <v>0</v>
@@ -37454,28 +37544,28 @@
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="B815" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="C815" t="s">
-        <v>520</v>
+        <v>1062</v>
       </c>
       <c r="D815" t="s">
-        <v>1084</v>
+        <v>788</v>
       </c>
       <c r="E815" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="F815" t="s">
-        <v>520</v>
+        <v>1062</v>
       </c>
       <c r="G815" t="s">
-        <v>1084</v>
+        <v>788</v>
       </c>
       <c r="H815">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="I815">
         <v>0</v>
@@ -37516,7 +37606,7 @@
         <v>788</v>
       </c>
       <c r="H816">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="I816">
         <v>0</v>
@@ -37536,28 +37626,28 @@
     </row>
     <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1092</v>
+        <v>169</v>
       </c>
       <c r="B817" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="C817" t="s">
-        <v>1062</v>
+        <v>158</v>
       </c>
       <c r="D817" t="s">
-        <v>788</v>
+        <v>170</v>
       </c>
       <c r="E817" t="s">
-        <v>317</v>
+        <v>158</v>
       </c>
       <c r="F817" t="s">
-        <v>1062</v>
+        <v>158</v>
       </c>
       <c r="G817" t="s">
-        <v>788</v>
+        <v>170</v>
       </c>
       <c r="H817">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="I817">
         <v>0</v>
@@ -37577,28 +37667,28 @@
     </row>
     <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>169</v>
+        <v>1093</v>
       </c>
       <c r="B818" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="C818" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="D818" t="s">
-        <v>170</v>
+        <v>1094</v>
       </c>
       <c r="E818" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="F818" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="G818" t="s">
-        <v>170</v>
+        <v>1094</v>
       </c>
       <c r="H818">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I818">
         <v>0</v>
@@ -37618,28 +37708,28 @@
     </row>
     <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B819" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C819" t="s">
-        <v>346</v>
+        <v>708</v>
       </c>
       <c r="D819" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E819" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="F819" t="s">
-        <v>346</v>
+        <v>708</v>
       </c>
       <c r="G819" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H819">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I819">
         <v>0</v>
@@ -37659,28 +37749,28 @@
     </row>
     <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1095</v>
+        <v>1146</v>
       </c>
       <c r="B820" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="C820" t="s">
-        <v>708</v>
+        <v>1027</v>
       </c>
       <c r="D820" t="s">
-        <v>1096</v>
+        <v>1147</v>
       </c>
       <c r="E820" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="F820" t="s">
-        <v>708</v>
+        <v>1027</v>
       </c>
       <c r="G820" t="s">
-        <v>1096</v>
+        <v>1147</v>
       </c>
       <c r="H820">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="I820">
         <v>0</v>
@@ -37700,28 +37790,28 @@
     </row>
     <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1146</v>
+        <v>986</v>
       </c>
       <c r="B821" t="s">
         <v>513</v>
       </c>
       <c r="C821" t="s">
-        <v>1027</v>
+        <v>520</v>
       </c>
       <c r="D821" t="s">
-        <v>1147</v>
+        <v>987</v>
       </c>
       <c r="E821" t="s">
         <v>513</v>
       </c>
       <c r="F821" t="s">
-        <v>1027</v>
+        <v>520</v>
       </c>
       <c r="G821" t="s">
-        <v>1147</v>
+        <v>987</v>
       </c>
       <c r="H821">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="I821">
         <v>0</v>
@@ -37741,28 +37831,28 @@
     </row>
     <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>986</v>
+        <v>803</v>
       </c>
       <c r="B822" t="s">
-        <v>513</v>
+        <v>785</v>
       </c>
       <c r="C822" t="s">
-        <v>520</v>
+        <v>801</v>
       </c>
       <c r="D822" t="s">
-        <v>987</v>
+        <v>804</v>
       </c>
       <c r="E822" t="s">
-        <v>513</v>
+        <v>785</v>
       </c>
       <c r="F822" t="s">
-        <v>520</v>
+        <v>801</v>
       </c>
       <c r="G822" t="s">
-        <v>987</v>
+        <v>805</v>
       </c>
       <c r="H822">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="I822">
         <v>0</v>
@@ -37771,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K822">
-        <v>0</v>
+        <v>6.6666666666666763E-2</v>
       </c>
       <c r="L822">
-        <v>0</v>
+        <v>6.6666666666666763E-2</v>
       </c>
       <c r="M822" t="s">
         <v>932</v>
@@ -37782,28 +37872,28 @@
     </row>
     <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>803</v>
+        <v>1101</v>
       </c>
       <c r="B823" t="s">
-        <v>785</v>
+        <v>513</v>
       </c>
       <c r="C823" t="s">
-        <v>801</v>
+        <v>520</v>
       </c>
       <c r="D823" t="s">
-        <v>804</v>
+        <v>1102</v>
       </c>
       <c r="E823" t="s">
-        <v>785</v>
+        <v>513</v>
       </c>
       <c r="F823" t="s">
-        <v>801</v>
+        <v>520</v>
       </c>
       <c r="G823" t="s">
-        <v>805</v>
+        <v>1102</v>
       </c>
       <c r="H823">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="I823">
         <v>0</v>
@@ -37812,10 +37902,10 @@
         <v>0</v>
       </c>
       <c r="K823">
-        <v>6.6666666666666763E-2</v>
+        <v>0</v>
       </c>
       <c r="L823">
-        <v>6.6666666666666763E-2</v>
+        <v>0</v>
       </c>
       <c r="M823" t="s">
         <v>932</v>
@@ -37823,7 +37913,7 @@
     </row>
     <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B824" t="s">
         <v>513</v>
@@ -37832,7 +37922,7 @@
         <v>520</v>
       </c>
       <c r="D824" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E824" t="s">
         <v>513</v>
@@ -37841,10 +37931,10 @@
         <v>520</v>
       </c>
       <c r="G824" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H824">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="I824">
         <v>0</v>
@@ -37864,7 +37954,7 @@
     </row>
     <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B825" t="s">
         <v>513</v>
@@ -37873,7 +37963,7 @@
         <v>520</v>
       </c>
       <c r="D825" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E825" t="s">
         <v>513</v>
@@ -37882,10 +37972,10 @@
         <v>520</v>
       </c>
       <c r="G825" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H825">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="I825">
         <v>0</v>
@@ -37905,7 +37995,7 @@
     </row>
     <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B826" t="s">
         <v>513</v>
@@ -37914,7 +38004,7 @@
         <v>520</v>
       </c>
       <c r="D826" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E826" t="s">
         <v>513</v>
@@ -37923,10 +38013,10 @@
         <v>520</v>
       </c>
       <c r="G826" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H826">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="I826">
         <v>0</v>
@@ -37946,7 +38036,7 @@
     </row>
     <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B827" t="s">
         <v>513</v>
@@ -37955,7 +38045,7 @@
         <v>520</v>
       </c>
       <c r="D827" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E827" t="s">
         <v>513</v>
@@ -37964,10 +38054,10 @@
         <v>520</v>
       </c>
       <c r="G827" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H827">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="I827">
         <v>0</v>
@@ -37987,7 +38077,7 @@
     </row>
     <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1103</v>
+        <v>522</v>
       </c>
       <c r="B828" t="s">
         <v>513</v>
@@ -37996,7 +38086,7 @@
         <v>520</v>
       </c>
       <c r="D828" t="s">
-        <v>1104</v>
+        <v>523</v>
       </c>
       <c r="E828" t="s">
         <v>513</v>
@@ -38005,10 +38095,10 @@
         <v>520</v>
       </c>
       <c r="G828" t="s">
-        <v>1104</v>
+        <v>523</v>
       </c>
       <c r="H828">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="I828">
         <v>0</v>
@@ -38028,28 +38118,28 @@
     </row>
     <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>522</v>
+        <v>1105</v>
       </c>
       <c r="B829" t="s">
         <v>513</v>
       </c>
       <c r="C829" t="s">
-        <v>520</v>
+        <v>1019</v>
       </c>
       <c r="D829" t="s">
-        <v>523</v>
+        <v>1019</v>
       </c>
       <c r="E829" t="s">
         <v>513</v>
       </c>
       <c r="F829" t="s">
-        <v>520</v>
+        <v>1019</v>
       </c>
       <c r="G829" t="s">
-        <v>523</v>
+        <v>1019</v>
       </c>
       <c r="H829">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="I829">
         <v>0</v>
@@ -38069,28 +38159,28 @@
     </row>
     <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B830" t="s">
         <v>513</v>
       </c>
       <c r="C830" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="D830" t="s">
-        <v>1019</v>
+        <v>1107</v>
       </c>
       <c r="E830" t="s">
         <v>513</v>
       </c>
       <c r="F830" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="G830" t="s">
-        <v>1019</v>
+        <v>1107</v>
       </c>
       <c r="H830">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="I830">
         <v>0</v>
@@ -38110,7 +38200,7 @@
     </row>
     <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B831" t="s">
         <v>513</v>
@@ -38119,7 +38209,7 @@
         <v>1027</v>
       </c>
       <c r="D831" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E831" t="s">
         <v>513</v>
@@ -38128,10 +38218,10 @@
         <v>1027</v>
       </c>
       <c r="G831" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H831">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="I831">
         <v>0</v>
@@ -38151,7 +38241,7 @@
     </row>
     <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B832" t="s">
         <v>513</v>
@@ -38160,7 +38250,7 @@
         <v>1027</v>
       </c>
       <c r="D832" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E832" t="s">
         <v>513</v>
@@ -38169,10 +38259,10 @@
         <v>1027</v>
       </c>
       <c r="G832" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H832">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I832">
         <v>0</v>
@@ -38192,28 +38282,28 @@
     </row>
     <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B833" t="s">
         <v>513</v>
       </c>
       <c r="C833" t="s">
-        <v>1027</v>
+        <v>514</v>
       </c>
       <c r="D833" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E833" t="s">
         <v>513</v>
       </c>
       <c r="F833" t="s">
-        <v>1027</v>
+        <v>514</v>
       </c>
       <c r="G833" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="H833">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="I833">
         <v>0</v>
@@ -38233,28 +38323,28 @@
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B834" t="s">
         <v>513</v>
       </c>
       <c r="C834" t="s">
-        <v>514</v>
+        <v>1027</v>
       </c>
       <c r="D834" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E834" t="s">
         <v>513</v>
       </c>
       <c r="F834" t="s">
-        <v>514</v>
+        <v>1027</v>
       </c>
       <c r="G834" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H834">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I834">
         <v>0</v>
@@ -38274,7 +38364,7 @@
     </row>
     <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B835" t="s">
         <v>513</v>
@@ -38283,7 +38373,7 @@
         <v>1027</v>
       </c>
       <c r="D835" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E835" t="s">
         <v>513</v>
@@ -38292,10 +38382,10 @@
         <v>1027</v>
       </c>
       <c r="G835" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H835">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="I835">
         <v>0</v>
@@ -38315,7 +38405,7 @@
     </row>
     <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B836" t="s">
         <v>513</v>
@@ -38324,7 +38414,7 @@
         <v>1027</v>
       </c>
       <c r="D836" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E836" t="s">
         <v>513</v>
@@ -38333,10 +38423,10 @@
         <v>1027</v>
       </c>
       <c r="G836" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="H836">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="I836">
         <v>0</v>
@@ -38356,7 +38446,7 @@
     </row>
     <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B837" t="s">
         <v>513</v>
@@ -38365,7 +38455,7 @@
         <v>1027</v>
       </c>
       <c r="D837" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E837" t="s">
         <v>513</v>
@@ -38374,10 +38464,10 @@
         <v>1027</v>
       </c>
       <c r="G837" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="H837">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="I837">
         <v>0</v>
@@ -38397,28 +38487,28 @@
     </row>
     <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B838" t="s">
         <v>513</v>
       </c>
       <c r="C838" t="s">
-        <v>1027</v>
+        <v>1123</v>
       </c>
       <c r="D838" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E838" t="s">
         <v>513</v>
       </c>
       <c r="F838" t="s">
-        <v>1027</v>
+        <v>1123</v>
       </c>
       <c r="G838" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="H838">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="I838">
         <v>0</v>
@@ -38438,28 +38528,28 @@
     </row>
     <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B839" t="s">
         <v>513</v>
       </c>
       <c r="C839" t="s">
-        <v>1123</v>
+        <v>388</v>
       </c>
       <c r="D839" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E839" t="s">
         <v>513</v>
       </c>
       <c r="F839" t="s">
-        <v>1123</v>
+        <v>388</v>
       </c>
       <c r="G839" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H839">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="I839">
         <v>0</v>
@@ -38479,110 +38569,110 @@
     </row>
     <row r="840" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1125</v>
+        <v>986</v>
       </c>
       <c r="B840" t="s">
         <v>513</v>
       </c>
       <c r="C840" t="s">
-        <v>388</v>
+        <v>520</v>
       </c>
       <c r="D840" t="s">
-        <v>1126</v>
+        <v>987</v>
       </c>
       <c r="E840" t="s">
         <v>513</v>
       </c>
       <c r="F840" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="G840" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="H840">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="I840">
         <v>0</v>
       </c>
       <c r="J840">
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="K840">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L840">
-        <v>0</v>
-      </c>
-      <c r="M840" t="s">
-        <v>932</v>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="M840">
+        <v>120903</v>
       </c>
     </row>
     <row r="841" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>986</v>
+        <v>890</v>
       </c>
       <c r="B841" t="s">
-        <v>513</v>
+        <v>865</v>
       </c>
       <c r="C841" t="s">
-        <v>520</v>
+        <v>891</v>
       </c>
       <c r="D841" t="s">
-        <v>987</v>
+        <v>892</v>
       </c>
       <c r="E841" t="s">
-        <v>513</v>
+        <v>865</v>
       </c>
       <c r="F841" t="s">
-        <v>399</v>
+        <v>891</v>
       </c>
       <c r="G841" t="s">
-        <v>1127</v>
+        <v>892</v>
       </c>
       <c r="H841">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="I841">
         <v>0</v>
       </c>
       <c r="J841">
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="K841">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="L841">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="M841">
-        <v>120903</v>
+        <v>0</v>
+      </c>
+      <c r="M841" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="842" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>890</v>
+        <v>530</v>
       </c>
       <c r="B842" t="s">
-        <v>865</v>
+        <v>513</v>
       </c>
       <c r="C842" t="s">
-        <v>891</v>
+        <v>531</v>
       </c>
       <c r="D842" t="s">
-        <v>892</v>
+        <v>532</v>
       </c>
       <c r="E842" t="s">
-        <v>865</v>
+        <v>513</v>
       </c>
       <c r="F842" t="s">
-        <v>891</v>
+        <v>531</v>
       </c>
       <c r="G842" t="s">
-        <v>892</v>
+        <v>532</v>
       </c>
       <c r="H842">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="I842">
         <v>0</v>
@@ -38602,7 +38692,7 @@
     </row>
     <row r="843" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>530</v>
+        <v>1128</v>
       </c>
       <c r="B843" t="s">
         <v>513</v>
@@ -38611,7 +38701,7 @@
         <v>531</v>
       </c>
       <c r="D843" t="s">
-        <v>532</v>
+        <v>1129</v>
       </c>
       <c r="E843" t="s">
         <v>513</v>
@@ -38620,10 +38710,10 @@
         <v>531</v>
       </c>
       <c r="G843" t="s">
-        <v>532</v>
+        <v>1129</v>
       </c>
       <c r="H843">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="I843">
         <v>0</v>
@@ -38643,28 +38733,28 @@
     </row>
     <row r="844" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B844" t="s">
         <v>513</v>
       </c>
       <c r="C844" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D844" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="E844" t="s">
         <v>513</v>
       </c>
       <c r="F844" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="G844" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H844">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="I844">
         <v>0</v>
@@ -38684,28 +38774,28 @@
     </row>
     <row r="845" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B845" t="s">
         <v>513</v>
       </c>
       <c r="C845" t="s">
-        <v>514</v>
+        <v>1123</v>
       </c>
       <c r="D845" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E845" t="s">
         <v>513</v>
       </c>
       <c r="F845" t="s">
-        <v>514</v>
+        <v>1123</v>
       </c>
       <c r="G845" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="H845">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="I845">
         <v>0</v>
@@ -38725,28 +38815,28 @@
     </row>
     <row r="846" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B846" t="s">
         <v>513</v>
       </c>
       <c r="C846" t="s">
-        <v>1123</v>
+        <v>513</v>
       </c>
       <c r="D846" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E846" t="s">
         <v>513</v>
       </c>
       <c r="F846" t="s">
-        <v>1123</v>
+        <v>513</v>
       </c>
       <c r="G846" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="H846">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="I846">
         <v>0</v>
@@ -38766,28 +38856,28 @@
     </row>
     <row r="847" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B847" t="s">
         <v>513</v>
       </c>
       <c r="C847" t="s">
-        <v>513</v>
+        <v>1027</v>
       </c>
       <c r="D847" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E847" t="s">
         <v>513</v>
       </c>
       <c r="F847" t="s">
-        <v>513</v>
+        <v>1027</v>
       </c>
       <c r="G847" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="H847">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="I847">
         <v>0</v>
@@ -38807,28 +38897,28 @@
     </row>
     <row r="848" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B848" t="s">
         <v>513</v>
       </c>
       <c r="C848" t="s">
-        <v>1027</v>
+        <v>990</v>
       </c>
       <c r="D848" t="s">
-        <v>1137</v>
+        <v>884</v>
       </c>
       <c r="E848" t="s">
         <v>513</v>
       </c>
       <c r="F848" t="s">
-        <v>1027</v>
+        <v>990</v>
       </c>
       <c r="G848" t="s">
-        <v>1137</v>
+        <v>884</v>
       </c>
       <c r="H848">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="I848">
         <v>0</v>
@@ -38848,28 +38938,28 @@
     </row>
     <row r="849" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B849" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="C849" t="s">
-        <v>990</v>
+        <v>1140</v>
       </c>
       <c r="D849" t="s">
-        <v>884</v>
+        <v>1141</v>
       </c>
       <c r="E849" t="s">
-        <v>513</v>
+        <v>317</v>
       </c>
       <c r="F849" t="s">
-        <v>990</v>
+        <v>1140</v>
       </c>
       <c r="G849" t="s">
-        <v>884</v>
+        <v>1141</v>
       </c>
       <c r="H849">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="I849">
         <v>0</v>
@@ -38889,28 +38979,28 @@
     </row>
     <row r="850" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="B850" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="C850" t="s">
-        <v>1140</v>
+        <v>1027</v>
       </c>
       <c r="D850" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="E850" t="s">
-        <v>317</v>
+        <v>513</v>
       </c>
       <c r="F850" t="s">
-        <v>1140</v>
+        <v>1027</v>
       </c>
       <c r="G850" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="H850">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="I850">
         <v>0</v>
@@ -38930,28 +39020,28 @@
     </row>
     <row r="851" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1142</v>
+        <v>383</v>
       </c>
       <c r="B851" t="s">
-        <v>513</v>
+        <v>346</v>
       </c>
       <c r="C851" t="s">
-        <v>1027</v>
+        <v>346</v>
       </c>
       <c r="D851" t="s">
-        <v>1143</v>
+        <v>384</v>
       </c>
       <c r="E851" t="s">
-        <v>513</v>
+        <v>346</v>
       </c>
       <c r="F851" t="s">
-        <v>1027</v>
+        <v>346</v>
       </c>
       <c r="G851" t="s">
-        <v>1143</v>
+        <v>384</v>
       </c>
       <c r="H851">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="I851">
         <v>0</v>
@@ -38971,28 +39061,28 @@
     </row>
     <row r="852" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>383</v>
+        <v>96</v>
       </c>
       <c r="B852" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="C852" t="s">
-        <v>346</v>
+        <v>89</v>
       </c>
       <c r="D852" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="E852" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="F852" t="s">
-        <v>346</v>
+        <v>89</v>
       </c>
       <c r="G852" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="H852">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="I852">
         <v>0</v>
@@ -39012,28 +39102,28 @@
     </row>
     <row r="853" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>96</v>
+        <v>559</v>
       </c>
       <c r="B853" t="s">
-        <v>42</v>
+        <v>536</v>
       </c>
       <c r="C853" t="s">
-        <v>89</v>
+        <v>560</v>
       </c>
       <c r="D853" t="s">
-        <v>97</v>
+        <v>561</v>
       </c>
       <c r="E853" t="s">
-        <v>42</v>
+        <v>536</v>
       </c>
       <c r="F853" t="s">
-        <v>89</v>
+        <v>560</v>
       </c>
       <c r="G853" t="s">
-        <v>97</v>
+        <v>561</v>
       </c>
       <c r="H853">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="I853">
         <v>0</v>
@@ -39053,28 +39143,28 @@
     </row>
     <row r="854" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>559</v>
+        <v>660</v>
       </c>
       <c r="B854" t="s">
-        <v>536</v>
+        <v>646</v>
       </c>
       <c r="C854" t="s">
-        <v>560</v>
+        <v>657</v>
       </c>
       <c r="D854" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="E854" t="s">
-        <v>536</v>
+        <v>646</v>
       </c>
       <c r="F854" t="s">
-        <v>560</v>
+        <v>657</v>
       </c>
       <c r="G854" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
       <c r="H854">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="I854">
         <v>0</v>
@@ -39094,28 +39184,28 @@
     </row>
     <row r="855" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>660</v>
+        <v>274</v>
       </c>
       <c r="B855" t="s">
-        <v>646</v>
+        <v>221</v>
       </c>
       <c r="C855" t="s">
-        <v>657</v>
+        <v>263</v>
       </c>
       <c r="D855" t="s">
-        <v>648</v>
+        <v>275</v>
       </c>
       <c r="E855" t="s">
-        <v>646</v>
+        <v>221</v>
       </c>
       <c r="F855" t="s">
-        <v>657</v>
+        <v>263</v>
       </c>
       <c r="G855" t="s">
-        <v>648</v>
+        <v>275</v>
       </c>
       <c r="H855">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="I855">
         <v>0</v>
@@ -39135,7 +39225,7 @@
     </row>
     <row r="856" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>274</v>
+        <v>1179</v>
       </c>
       <c r="B856" t="s">
         <v>221</v>
@@ -39144,7 +39234,7 @@
         <v>263</v>
       </c>
       <c r="D856" t="s">
-        <v>275</v>
+        <v>1178</v>
       </c>
       <c r="E856" t="s">
         <v>221</v>
@@ -39153,10 +39243,10 @@
         <v>263</v>
       </c>
       <c r="G856" t="s">
-        <v>275</v>
+        <v>1178</v>
       </c>
       <c r="H856">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I856">
         <v>0</v>
@@ -39176,7 +39266,7 @@
     </row>
     <row r="857" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1181</v>
+        <v>262</v>
       </c>
       <c r="B857" t="s">
         <v>221</v>
@@ -39185,7 +39275,7 @@
         <v>263</v>
       </c>
       <c r="D857" t="s">
-        <v>1180</v>
+        <v>264</v>
       </c>
       <c r="E857" t="s">
         <v>221</v>
@@ -39194,10 +39284,10 @@
         <v>263</v>
       </c>
       <c r="G857" t="s">
-        <v>1180</v>
+        <v>264</v>
       </c>
       <c r="H857">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="I857">
         <v>0</v>
@@ -39217,7 +39307,7 @@
     </row>
     <row r="858" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>262</v>
+        <v>1180</v>
       </c>
       <c r="B858" t="s">
         <v>221</v>
@@ -39226,7 +39316,7 @@
         <v>263</v>
       </c>
       <c r="D858" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E858" t="s">
         <v>221</v>
@@ -39235,10 +39325,10 @@
         <v>263</v>
       </c>
       <c r="G858" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H858">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="I858">
         <v>0</v>
@@ -39258,28 +39348,28 @@
     </row>
     <row r="859" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1182</v>
+        <v>241</v>
       </c>
       <c r="B859" t="s">
         <v>221</v>
       </c>
       <c r="C859" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D859" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E859" t="s">
         <v>221</v>
       </c>
       <c r="F859" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="G859" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="H859">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="I859">
         <v>0</v>
@@ -39299,28 +39389,28 @@
     </row>
     <row r="860" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>241</v>
+        <v>1181</v>
       </c>
       <c r="B860" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="C860" t="s">
-        <v>227</v>
+        <v>968</v>
       </c>
       <c r="D860" t="s">
-        <v>242</v>
+        <v>1182</v>
       </c>
       <c r="E860" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="F860" t="s">
-        <v>227</v>
+        <v>968</v>
       </c>
       <c r="G860" t="s">
-        <v>242</v>
+        <v>1182</v>
       </c>
       <c r="H860">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="I860">
         <v>0</v>
@@ -39343,25 +39433,25 @@
         <v>1183</v>
       </c>
       <c r="B861" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="C861" t="s">
-        <v>968</v>
+        <v>1140</v>
       </c>
       <c r="D861" t="s">
         <v>1184</v>
       </c>
       <c r="E861" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="F861" t="s">
-        <v>968</v>
+        <v>1140</v>
       </c>
       <c r="G861" t="s">
         <v>1184</v>
       </c>
       <c r="H861">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="I861">
         <v>0</v>
@@ -39381,7 +39471,7 @@
     </row>
     <row r="862" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B862" t="s">
         <v>317</v>
@@ -39390,7 +39480,7 @@
         <v>1140</v>
       </c>
       <c r="D862" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E862" t="s">
         <v>317</v>
@@ -39399,10 +39489,10 @@
         <v>1140</v>
       </c>
       <c r="G862" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H862">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="I862">
         <v>0</v>
@@ -39422,28 +39512,28 @@
     </row>
     <row r="863" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1185</v>
+        <v>649</v>
       </c>
       <c r="B863" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="C863" t="s">
-        <v>1140</v>
+        <v>647</v>
       </c>
       <c r="D863" t="s">
-        <v>1186</v>
+        <v>650</v>
       </c>
       <c r="E863" t="s">
-        <v>317</v>
+        <v>646</v>
       </c>
       <c r="F863" t="s">
-        <v>1140</v>
+        <v>647</v>
       </c>
       <c r="G863" t="s">
-        <v>1186</v>
+        <v>650</v>
       </c>
       <c r="H863">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="I863">
         <v>0</v>
@@ -39463,28 +39553,28 @@
     </row>
     <row r="864" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>649</v>
+        <v>1185</v>
       </c>
       <c r="B864" t="s">
-        <v>646</v>
+        <v>42</v>
       </c>
       <c r="C864" t="s">
-        <v>647</v>
+        <v>74</v>
       </c>
       <c r="D864" t="s">
-        <v>650</v>
+        <v>1186</v>
       </c>
       <c r="E864" t="s">
-        <v>646</v>
+        <v>42</v>
       </c>
       <c r="F864" t="s">
-        <v>647</v>
+        <v>74</v>
       </c>
       <c r="G864" t="s">
-        <v>650</v>
+        <v>1186</v>
       </c>
       <c r="H864">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I864">
         <v>0</v>
@@ -39504,28 +39594,28 @@
     </row>
     <row r="865" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1187</v>
+        <v>655</v>
       </c>
       <c r="B865" t="s">
-        <v>42</v>
+        <v>646</v>
       </c>
       <c r="C865" t="s">
-        <v>74</v>
+        <v>652</v>
       </c>
       <c r="D865" t="s">
-        <v>1188</v>
+        <v>652</v>
       </c>
       <c r="E865" t="s">
-        <v>42</v>
+        <v>646</v>
       </c>
       <c r="F865" t="s">
-        <v>74</v>
+        <v>652</v>
       </c>
       <c r="G865" t="s">
-        <v>1188</v>
+        <v>652</v>
       </c>
       <c r="H865">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="I865">
         <v>0</v>
@@ -39545,28 +39635,28 @@
     </row>
     <row r="866" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>655</v>
+        <v>15</v>
       </c>
       <c r="B866" t="s">
-        <v>646</v>
+        <v>13</v>
       </c>
       <c r="C866" t="s">
-        <v>652</v>
+        <v>14</v>
       </c>
       <c r="D866" t="s">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="E866" t="s">
-        <v>646</v>
+        <v>13</v>
       </c>
       <c r="F866" t="s">
-        <v>652</v>
+        <v>14</v>
       </c>
       <c r="G866" t="s">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="H866">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="I866">
         <v>0</v>
@@ -39586,31 +39676,31 @@
     </row>
     <row r="867" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>15</v>
+        <v>1187</v>
       </c>
       <c r="B867" t="s">
-        <v>13</v>
+        <v>635</v>
       </c>
       <c r="C867" t="s">
-        <v>14</v>
+        <v>1188</v>
       </c>
       <c r="D867" t="s">
-        <v>16</v>
+        <v>1189</v>
       </c>
       <c r="E867" t="s">
-        <v>13</v>
+        <v>638</v>
       </c>
       <c r="F867" t="s">
-        <v>14</v>
+        <v>1188</v>
       </c>
       <c r="G867" t="s">
-        <v>16</v>
+        <v>1189</v>
       </c>
       <c r="H867">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="I867">
-        <v>0</v>
+        <v>0.21212121212121221</v>
       </c>
       <c r="J867">
         <v>0</v>
@@ -39619,7 +39709,7 @@
         <v>0</v>
       </c>
       <c r="L867">
-        <v>0</v>
+        <v>0.21212121212121221</v>
       </c>
       <c r="M867" t="s">
         <v>932</v>
@@ -39627,13 +39717,13 @@
     </row>
     <row r="868" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B868" t="s">
         <v>635</v>
       </c>
       <c r="C868" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D868" t="s">
         <v>1191</v>
@@ -39642,13 +39732,13 @@
         <v>638</v>
       </c>
       <c r="F868" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G868" t="s">
         <v>1191</v>
       </c>
       <c r="H868">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="I868">
         <v>0.21212121212121221</v>
@@ -39674,34 +39764,34 @@
         <v>635</v>
       </c>
       <c r="C869" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D869" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E869" t="s">
         <v>638</v>
       </c>
       <c r="F869" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="G869" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H869">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I869">
         <v>0.21212121212121221</v>
       </c>
       <c r="J869">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K869">
         <v>0</v>
       </c>
       <c r="L869">
-        <v>0.21212121212121221</v>
+        <v>0.3232323232323232</v>
       </c>
       <c r="M869" t="s">
         <v>932</v>
@@ -39709,40 +39799,40 @@
     </row>
     <row r="870" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B870" t="s">
         <v>635</v>
       </c>
       <c r="C870" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D870" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E870" t="s">
         <v>638</v>
       </c>
       <c r="F870" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G870" t="s">
         <v>1197</v>
       </c>
-      <c r="G870" t="s">
-        <v>1196</v>
-      </c>
       <c r="H870">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="I870">
         <v>0.21212121212121221</v>
       </c>
       <c r="J870">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K870">
         <v>0</v>
       </c>
       <c r="L870">
-        <v>0.3232323232323232</v>
+        <v>0.21212121212121221</v>
       </c>
       <c r="M870" t="s">
         <v>932</v>
@@ -39756,7 +39846,7 @@
         <v>635</v>
       </c>
       <c r="C871" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D871" t="s">
         <v>1199</v>
@@ -39765,25 +39855,25 @@
         <v>638</v>
       </c>
       <c r="F871" t="s">
-        <v>1190</v>
+        <v>1195</v>
       </c>
       <c r="G871" t="s">
         <v>1199</v>
       </c>
       <c r="H871">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="I871">
         <v>0.21212121212121221</v>
       </c>
       <c r="J871">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K871">
         <v>0</v>
       </c>
       <c r="L871">
-        <v>0.21212121212121221</v>
+        <v>0.3232323232323232</v>
       </c>
       <c r="M871" t="s">
         <v>932</v>
@@ -39797,7 +39887,7 @@
         <v>635</v>
       </c>
       <c r="C872" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D872" t="s">
         <v>1201</v>
@@ -39806,13 +39896,13 @@
         <v>638</v>
       </c>
       <c r="F872" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G872" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H872">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="I872">
         <v>0.21212121212121221</v>
@@ -39821,10 +39911,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="K872">
-        <v>0</v>
+        <v>3.1746031746031862E-2</v>
       </c>
       <c r="L872">
-        <v>0.3232323232323232</v>
+        <v>0.35497835497835512</v>
       </c>
       <c r="M872" t="s">
         <v>932</v>
@@ -39832,28 +39922,28 @@
     </row>
     <row r="873" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B873" t="s">
         <v>635</v>
       </c>
       <c r="C873" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D873" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E873" t="s">
         <v>638</v>
       </c>
       <c r="F873" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G873" t="s">
         <v>1204</v>
       </c>
       <c r="H873">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="I873">
         <v>0.21212121212121221</v>
@@ -39862,10 +39952,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="K873">
-        <v>3.1746031746031862E-2</v>
+        <v>0</v>
       </c>
       <c r="L873">
-        <v>0.35497835497835512</v>
+        <v>0.3232323232323232</v>
       </c>
       <c r="M873" t="s">
         <v>932</v>
@@ -39873,40 +39963,40 @@
     </row>
     <row r="874" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1205</v>
+        <v>461</v>
       </c>
       <c r="B874" t="s">
-        <v>635</v>
+        <v>432</v>
       </c>
       <c r="C874" t="s">
-        <v>1195</v>
+        <v>457</v>
       </c>
       <c r="D874" t="s">
-        <v>1206</v>
+        <v>462</v>
       </c>
       <c r="E874" t="s">
-        <v>638</v>
+        <v>432</v>
       </c>
       <c r="F874" t="s">
-        <v>1197</v>
+        <v>457</v>
       </c>
       <c r="G874" t="s">
-        <v>1206</v>
+        <v>462</v>
       </c>
       <c r="H874">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="I874">
-        <v>0.21212121212121221</v>
+        <v>0</v>
       </c>
       <c r="J874">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K874">
         <v>0</v>
       </c>
       <c r="L874">
-        <v>0.3232323232323232</v>
+        <v>0</v>
       </c>
       <c r="M874" t="s">
         <v>932</v>
@@ -39914,40 +40004,40 @@
     </row>
     <row r="875" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>461</v>
+        <v>41</v>
       </c>
       <c r="B875" t="s">
-        <v>432</v>
+        <v>42</v>
       </c>
       <c r="C875" t="s">
-        <v>457</v>
+        <v>43</v>
       </c>
       <c r="D875" t="s">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="E875" t="s">
-        <v>432</v>
+        <v>42</v>
       </c>
       <c r="F875" t="s">
-        <v>457</v>
+        <v>45</v>
       </c>
       <c r="G875" t="s">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="H875">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="I875">
         <v>0</v>
       </c>
       <c r="J875">
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="K875">
         <v>0</v>
       </c>
       <c r="L875">
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="M875" t="s">
         <v>932</v>
@@ -39955,40 +40045,40 @@
     </row>
     <row r="876" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>41</v>
+        <v>1205</v>
       </c>
       <c r="B876" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="C876" t="s">
-        <v>43</v>
+        <v>708</v>
       </c>
       <c r="D876" t="s">
-        <v>44</v>
+        <v>1206</v>
       </c>
       <c r="E876" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="F876" t="s">
-        <v>45</v>
+        <v>708</v>
       </c>
       <c r="G876" t="s">
-        <v>44</v>
+        <v>1206</v>
       </c>
       <c r="H876">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="I876">
         <v>0</v>
       </c>
       <c r="J876">
-        <v>9.722222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="K876">
         <v>0</v>
       </c>
       <c r="L876">
-        <v>9.722222222222221E-2</v>
+        <v>0</v>
       </c>
       <c r="M876" t="s">
         <v>932</v>
@@ -40017,7 +40107,7 @@
         <v>1208</v>
       </c>
       <c r="H877">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="I877">
         <v>0</v>
@@ -40037,7 +40127,7 @@
     </row>
     <row r="878" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1209</v>
+        <v>1095</v>
       </c>
       <c r="B878" t="s">
         <v>317</v>
@@ -40046,7 +40136,7 @@
         <v>708</v>
       </c>
       <c r="D878" t="s">
-        <v>1210</v>
+        <v>1096</v>
       </c>
       <c r="E878" t="s">
         <v>317</v>
@@ -40055,10 +40145,10 @@
         <v>708</v>
       </c>
       <c r="G878" t="s">
-        <v>1210</v>
+        <v>1096</v>
       </c>
       <c r="H878">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="I878">
         <v>0</v>
@@ -40078,28 +40168,28 @@
     </row>
     <row r="879" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1095</v>
+        <v>365</v>
       </c>
       <c r="B879" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C879" t="s">
-        <v>708</v>
+        <v>366</v>
       </c>
       <c r="D879" t="s">
-        <v>1096</v>
+        <v>367</v>
       </c>
       <c r="E879" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="F879" t="s">
-        <v>708</v>
+        <v>366</v>
       </c>
       <c r="G879" t="s">
-        <v>1096</v>
+        <v>367</v>
       </c>
       <c r="H879">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="I879">
         <v>0</v>
@@ -40119,28 +40209,28 @@
     </row>
     <row r="880" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>365</v>
+        <v>873</v>
       </c>
       <c r="B880" t="s">
-        <v>346</v>
+        <v>865</v>
       </c>
       <c r="C880" t="s">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="D880" t="s">
-        <v>367</v>
+        <v>874</v>
       </c>
       <c r="E880" t="s">
-        <v>346</v>
+        <v>865</v>
       </c>
       <c r="F880" t="s">
-        <v>366</v>
+        <v>865</v>
       </c>
       <c r="G880" t="s">
-        <v>367</v>
+        <v>874</v>
       </c>
       <c r="H880">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="I880">
         <v>0</v>
@@ -40160,28 +40250,28 @@
     </row>
     <row r="881" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>873</v>
+        <v>362</v>
       </c>
       <c r="B881" t="s">
-        <v>865</v>
+        <v>346</v>
       </c>
       <c r="C881" t="s">
-        <v>865</v>
+        <v>355</v>
       </c>
       <c r="D881" t="s">
-        <v>874</v>
+        <v>335</v>
       </c>
       <c r="E881" t="s">
-        <v>865</v>
+        <v>346</v>
       </c>
       <c r="F881" t="s">
-        <v>865</v>
+        <v>355</v>
       </c>
       <c r="G881" t="s">
-        <v>874</v>
+        <v>335</v>
       </c>
       <c r="H881">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="I881">
         <v>0</v>
@@ -40201,28 +40291,28 @@
     </row>
     <row r="882" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B882" t="s">
         <v>346</v>
       </c>
       <c r="C882" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D882" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="E882" t="s">
         <v>346</v>
       </c>
       <c r="F882" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G882" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="H882">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="I882">
         <v>0</v>
@@ -40242,28 +40332,28 @@
     </row>
     <row r="883" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>365</v>
+        <v>1209</v>
       </c>
       <c r="B883" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="C883" t="s">
-        <v>366</v>
+        <v>1210</v>
       </c>
       <c r="D883" t="s">
-        <v>367</v>
+        <v>1211</v>
       </c>
       <c r="E883" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="F883" t="s">
-        <v>366</v>
+        <v>1210</v>
       </c>
       <c r="G883" t="s">
-        <v>367</v>
+        <v>1211</v>
       </c>
       <c r="H883">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="I883">
         <v>0</v>
@@ -40283,28 +40373,28 @@
     </row>
     <row r="884" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1211</v>
+        <v>373</v>
       </c>
       <c r="B884" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="C884" t="s">
-        <v>1212</v>
+        <v>366</v>
       </c>
       <c r="D884" t="s">
-        <v>1213</v>
+        <v>374</v>
       </c>
       <c r="E884" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F884" t="s">
-        <v>1212</v>
+        <v>366</v>
       </c>
       <c r="G884" t="s">
-        <v>1213</v>
+        <v>374</v>
       </c>
       <c r="H884">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="I884">
         <v>0</v>
@@ -40324,7 +40414,7 @@
     </row>
     <row r="885" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B885" t="s">
         <v>346</v>
@@ -40333,7 +40423,7 @@
         <v>366</v>
       </c>
       <c r="D885" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E885" t="s">
         <v>346</v>
@@ -40342,10 +40432,10 @@
         <v>366</v>
       </c>
       <c r="G885" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H885">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="I885">
         <v>0</v>
@@ -40365,28 +40455,28 @@
     </row>
     <row r="886" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="B886" t="s">
         <v>346</v>
       </c>
       <c r="C886" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="D886" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="E886" t="s">
         <v>346</v>
       </c>
       <c r="F886" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="G886" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="H886">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="I886">
         <v>0</v>
@@ -40406,28 +40496,28 @@
     </row>
     <row r="887" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>408</v>
+        <v>967</v>
       </c>
       <c r="B887" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="C887" t="s">
-        <v>406</v>
+        <v>968</v>
       </c>
       <c r="D887" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="E887" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="F887" t="s">
-        <v>406</v>
+        <v>968</v>
       </c>
       <c r="G887" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="H887">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I887">
         <v>0</v>
@@ -40447,28 +40537,28 @@
     </row>
     <row r="888" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>967</v>
+        <v>1038</v>
       </c>
       <c r="B888" t="s">
-        <v>42</v>
+        <v>785</v>
       </c>
       <c r="C888" t="s">
-        <v>968</v>
+        <v>785</v>
       </c>
       <c r="D888" t="s">
-        <v>969</v>
+        <v>810</v>
       </c>
       <c r="E888" t="s">
-        <v>42</v>
+        <v>785</v>
       </c>
       <c r="F888" t="s">
-        <v>968</v>
+        <v>785</v>
       </c>
       <c r="G888" t="s">
-        <v>969</v>
+        <v>810</v>
       </c>
       <c r="H888">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="I888">
         <v>0</v>
@@ -40488,28 +40578,28 @@
     </row>
     <row r="889" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1038</v>
+        <v>456</v>
       </c>
       <c r="B889" t="s">
-        <v>785</v>
+        <v>432</v>
       </c>
       <c r="C889" t="s">
-        <v>785</v>
+        <v>457</v>
       </c>
       <c r="D889" t="s">
-        <v>810</v>
+        <v>458</v>
       </c>
       <c r="E889" t="s">
-        <v>785</v>
+        <v>432</v>
       </c>
       <c r="F889" t="s">
-        <v>785</v>
+        <v>457</v>
       </c>
       <c r="G889" t="s">
-        <v>810</v>
+        <v>458</v>
       </c>
       <c r="H889">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="I889">
         <v>0</v>
@@ -40529,7 +40619,7 @@
     </row>
     <row r="890" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>456</v>
+        <v>983</v>
       </c>
       <c r="B890" t="s">
         <v>432</v>
@@ -40538,7 +40628,7 @@
         <v>457</v>
       </c>
       <c r="D890" t="s">
-        <v>458</v>
+        <v>984</v>
       </c>
       <c r="E890" t="s">
         <v>432</v>
@@ -40547,10 +40637,10 @@
         <v>457</v>
       </c>
       <c r="G890" t="s">
-        <v>458</v>
+        <v>1212</v>
       </c>
       <c r="H890">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="I890">
         <v>0</v>
@@ -40559,10 +40649,10 @@
         <v>0</v>
       </c>
       <c r="K890">
-        <v>0</v>
+        <v>7.4074074074074181E-2</v>
       </c>
       <c r="L890">
-        <v>0</v>
+        <v>7.4074074074074181E-2</v>
       </c>
       <c r="M890" t="s">
         <v>932</v>
@@ -40570,7 +40660,7 @@
     </row>
     <row r="891" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>983</v>
+        <v>1059</v>
       </c>
       <c r="B891" t="s">
         <v>432</v>
@@ -40579,7 +40669,7 @@
         <v>457</v>
       </c>
       <c r="D891" t="s">
-        <v>984</v>
+        <v>1060</v>
       </c>
       <c r="E891" t="s">
         <v>432</v>
@@ -40588,10 +40678,10 @@
         <v>457</v>
       </c>
       <c r="G891" t="s">
-        <v>1214</v>
+        <v>1060</v>
       </c>
       <c r="H891">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="I891">
         <v>0</v>
@@ -40600,10 +40690,10 @@
         <v>0</v>
       </c>
       <c r="K891">
-        <v>7.4074074074074181E-2</v>
+        <v>0</v>
       </c>
       <c r="L891">
-        <v>7.4074074074074181E-2</v>
+        <v>0</v>
       </c>
       <c r="M891" t="s">
         <v>932</v>
@@ -40611,7 +40701,7 @@
     </row>
     <row r="892" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1059</v>
+        <v>1213</v>
       </c>
       <c r="B892" t="s">
         <v>432</v>
@@ -40620,7 +40710,7 @@
         <v>457</v>
       </c>
       <c r="D892" t="s">
-        <v>1060</v>
+        <v>1214</v>
       </c>
       <c r="E892" t="s">
         <v>432</v>
@@ -40629,10 +40719,10 @@
         <v>457</v>
       </c>
       <c r="G892" t="s">
-        <v>1060</v>
+        <v>1214</v>
       </c>
       <c r="H892">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I892">
         <v>0</v>
@@ -40652,28 +40742,28 @@
     </row>
     <row r="893" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1215</v>
+        <v>339</v>
       </c>
       <c r="B893" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="C893" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="D893" t="s">
-        <v>1216</v>
+        <v>340</v>
       </c>
       <c r="E893" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="F893" t="s">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="G893" t="s">
-        <v>1216</v>
+        <v>340</v>
       </c>
       <c r="H893">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="I893">
         <v>0</v>
@@ -40693,7 +40783,7 @@
     </row>
     <row r="894" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>339</v>
+        <v>1215</v>
       </c>
       <c r="B894" t="s">
         <v>317</v>
@@ -40702,7 +40792,7 @@
         <v>337</v>
       </c>
       <c r="D894" t="s">
-        <v>340</v>
+        <v>1216</v>
       </c>
       <c r="E894" t="s">
         <v>317</v>
@@ -40711,10 +40801,10 @@
         <v>337</v>
       </c>
       <c r="G894" t="s">
-        <v>340</v>
+        <v>1216</v>
       </c>
       <c r="H894">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="I894">
         <v>0</v>
@@ -40737,25 +40827,25 @@
         <v>1217</v>
       </c>
       <c r="B895" t="s">
-        <v>317</v>
+        <v>913</v>
       </c>
       <c r="C895" t="s">
-        <v>337</v>
+        <v>919</v>
       </c>
       <c r="D895" t="s">
         <v>1218</v>
       </c>
       <c r="E895" t="s">
-        <v>317</v>
+        <v>913</v>
       </c>
       <c r="F895" t="s">
-        <v>337</v>
+        <v>919</v>
       </c>
       <c r="G895" t="s">
         <v>1218</v>
       </c>
       <c r="H895">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="I895">
         <v>0</v>
@@ -40773,8 +40863,1197 @@
         <v>932</v>
       </c>
     </row>
+    <row r="896" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>912</v>
+      </c>
+      <c r="B896" t="s">
+        <v>913</v>
+      </c>
+      <c r="C896" t="s">
+        <v>914</v>
+      </c>
+      <c r="D896" t="s">
+        <v>915</v>
+      </c>
+      <c r="E896" t="s">
+        <v>913</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G896" t="s">
+        <v>915</v>
+      </c>
+      <c r="H896">
+        <v>1282</v>
+      </c>
+      <c r="I896">
+        <v>0</v>
+      </c>
+      <c r="J896">
+        <v>0.48809523809523808</v>
+      </c>
+      <c r="K896">
+        <v>0</v>
+      </c>
+      <c r="L896">
+        <v>0.48809523809523808</v>
+      </c>
+      <c r="M896" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="897" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B897" t="s">
+        <v>913</v>
+      </c>
+      <c r="C897" t="s">
+        <v>919</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E897" t="s">
+        <v>913</v>
+      </c>
+      <c r="F897" t="s">
+        <v>919</v>
+      </c>
+      <c r="G897" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H897">
+        <v>1284</v>
+      </c>
+      <c r="I897">
+        <v>0</v>
+      </c>
+      <c r="J897">
+        <v>0</v>
+      </c>
+      <c r="K897">
+        <v>0</v>
+      </c>
+      <c r="L897">
+        <v>0</v>
+      </c>
+      <c r="M897" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="898" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B898" t="s">
+        <v>42</v>
+      </c>
+      <c r="C898" t="s">
+        <v>968</v>
+      </c>
+      <c r="D898" t="s">
+        <v>306</v>
+      </c>
+      <c r="E898" t="s">
+        <v>42</v>
+      </c>
+      <c r="F898" t="s">
+        <v>968</v>
+      </c>
+      <c r="G898" t="s">
+        <v>306</v>
+      </c>
+      <c r="H898">
+        <v>1285</v>
+      </c>
+      <c r="I898">
+        <v>0</v>
+      </c>
+      <c r="J898">
+        <v>0</v>
+      </c>
+      <c r="K898">
+        <v>0</v>
+      </c>
+      <c r="L898">
+        <v>0</v>
+      </c>
+      <c r="M898" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="899" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B899" t="s">
+        <v>42</v>
+      </c>
+      <c r="C899" t="s">
+        <v>968</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E899" t="s">
+        <v>42</v>
+      </c>
+      <c r="F899" t="s">
+        <v>968</v>
+      </c>
+      <c r="G899" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H899">
+        <v>1293</v>
+      </c>
+      <c r="I899">
+        <v>0</v>
+      </c>
+      <c r="J899">
+        <v>0</v>
+      </c>
+      <c r="K899">
+        <v>0</v>
+      </c>
+      <c r="L899">
+        <v>0</v>
+      </c>
+      <c r="M899" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="900" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B900" t="s">
+        <v>536</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E900" t="s">
+        <v>536</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G900" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H900">
+        <v>1295</v>
+      </c>
+      <c r="I900">
+        <v>0</v>
+      </c>
+      <c r="J900">
+        <v>0</v>
+      </c>
+      <c r="K900">
+        <v>0</v>
+      </c>
+      <c r="L900">
+        <v>0</v>
+      </c>
+      <c r="M900" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="901" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>583</v>
+      </c>
+      <c r="B901" t="s">
+        <v>536</v>
+      </c>
+      <c r="C901" t="s">
+        <v>581</v>
+      </c>
+      <c r="D901" t="s">
+        <v>581</v>
+      </c>
+      <c r="E901" t="s">
+        <v>536</v>
+      </c>
+      <c r="F901" t="s">
+        <v>581</v>
+      </c>
+      <c r="G901" t="s">
+        <v>581</v>
+      </c>
+      <c r="H901">
+        <v>1296</v>
+      </c>
+      <c r="I901">
+        <v>0</v>
+      </c>
+      <c r="J901">
+        <v>0</v>
+      </c>
+      <c r="K901">
+        <v>0</v>
+      </c>
+      <c r="L901">
+        <v>0</v>
+      </c>
+      <c r="M901" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="902" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B902" t="s">
+        <v>42</v>
+      </c>
+      <c r="C902" t="s">
+        <v>80</v>
+      </c>
+      <c r="D902" t="s">
+        <v>50</v>
+      </c>
+      <c r="E902" t="s">
+        <v>42</v>
+      </c>
+      <c r="F902" t="s">
+        <v>80</v>
+      </c>
+      <c r="G902" t="s">
+        <v>50</v>
+      </c>
+      <c r="H902">
+        <v>1297</v>
+      </c>
+      <c r="I902">
+        <v>0</v>
+      </c>
+      <c r="J902">
+        <v>0</v>
+      </c>
+      <c r="K902">
+        <v>0</v>
+      </c>
+      <c r="L902">
+        <v>0</v>
+      </c>
+      <c r="M902" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="903" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B903" t="s">
+        <v>42</v>
+      </c>
+      <c r="C903" t="s">
+        <v>80</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E903" t="s">
+        <v>42</v>
+      </c>
+      <c r="F903" t="s">
+        <v>80</v>
+      </c>
+      <c r="G903" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H903">
+        <v>1299</v>
+      </c>
+      <c r="I903">
+        <v>0</v>
+      </c>
+      <c r="J903">
+        <v>0</v>
+      </c>
+      <c r="K903">
+        <v>0</v>
+      </c>
+      <c r="L903">
+        <v>0</v>
+      </c>
+      <c r="M903" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="904" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>307</v>
+      </c>
+      <c r="B904" t="s">
+        <v>296</v>
+      </c>
+      <c r="C904" t="s">
+        <v>308</v>
+      </c>
+      <c r="D904" t="s">
+        <v>309</v>
+      </c>
+      <c r="E904" t="s">
+        <v>296</v>
+      </c>
+      <c r="F904" t="s">
+        <v>308</v>
+      </c>
+      <c r="G904" t="s">
+        <v>309</v>
+      </c>
+      <c r="H904">
+        <v>1300</v>
+      </c>
+      <c r="I904">
+        <v>0</v>
+      </c>
+      <c r="J904">
+        <v>0</v>
+      </c>
+      <c r="K904">
+        <v>0</v>
+      </c>
+      <c r="L904">
+        <v>0</v>
+      </c>
+      <c r="M904" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="905" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B905" t="s">
+        <v>296</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E905" t="s">
+        <v>296</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G905" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H905">
+        <v>1301</v>
+      </c>
+      <c r="I905">
+        <v>0</v>
+      </c>
+      <c r="J905">
+        <v>0</v>
+      </c>
+      <c r="K905">
+        <v>0</v>
+      </c>
+      <c r="L905">
+        <v>0</v>
+      </c>
+      <c r="M905" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="906" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B906" t="s">
+        <v>936</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E906" t="s">
+        <v>936</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G906" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H906">
+        <v>1302</v>
+      </c>
+      <c r="I906">
+        <v>0</v>
+      </c>
+      <c r="J906">
+        <v>0</v>
+      </c>
+      <c r="K906">
+        <v>0</v>
+      </c>
+      <c r="L906">
+        <v>0</v>
+      </c>
+      <c r="M906" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="907" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>800</v>
+      </c>
+      <c r="B907" t="s">
+        <v>785</v>
+      </c>
+      <c r="C907" t="s">
+        <v>801</v>
+      </c>
+      <c r="D907" t="s">
+        <v>802</v>
+      </c>
+      <c r="E907" t="s">
+        <v>785</v>
+      </c>
+      <c r="F907" t="s">
+        <v>801</v>
+      </c>
+      <c r="G907" t="s">
+        <v>802</v>
+      </c>
+      <c r="H907">
+        <v>1303</v>
+      </c>
+      <c r="I907">
+        <v>0</v>
+      </c>
+      <c r="J907">
+        <v>0</v>
+      </c>
+      <c r="K907">
+        <v>0</v>
+      </c>
+      <c r="L907">
+        <v>0</v>
+      </c>
+      <c r="M907" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="908" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>831</v>
+      </c>
+      <c r="B908" t="s">
+        <v>785</v>
+      </c>
+      <c r="C908" t="s">
+        <v>827</v>
+      </c>
+      <c r="D908" t="s">
+        <v>832</v>
+      </c>
+      <c r="E908" t="s">
+        <v>785</v>
+      </c>
+      <c r="F908" t="s">
+        <v>827</v>
+      </c>
+      <c r="G908" t="s">
+        <v>832</v>
+      </c>
+      <c r="H908">
+        <v>1304</v>
+      </c>
+      <c r="I908">
+        <v>0</v>
+      </c>
+      <c r="J908">
+        <v>0</v>
+      </c>
+      <c r="K908">
+        <v>0</v>
+      </c>
+      <c r="L908">
+        <v>0</v>
+      </c>
+      <c r="M908" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="909" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B909" t="s">
+        <v>785</v>
+      </c>
+      <c r="C909" t="s">
+        <v>838</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E909" t="s">
+        <v>785</v>
+      </c>
+      <c r="F909" t="s">
+        <v>838</v>
+      </c>
+      <c r="G909" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H909">
+        <v>1305</v>
+      </c>
+      <c r="I909">
+        <v>0</v>
+      </c>
+      <c r="J909">
+        <v>0</v>
+      </c>
+      <c r="K909">
+        <v>0</v>
+      </c>
+      <c r="L909">
+        <v>0</v>
+      </c>
+      <c r="M909" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="910" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>590</v>
+      </c>
+      <c r="B910" t="s">
+        <v>585</v>
+      </c>
+      <c r="C910" t="s">
+        <v>586</v>
+      </c>
+      <c r="D910" t="s">
+        <v>591</v>
+      </c>
+      <c r="E910" t="s">
+        <v>585</v>
+      </c>
+      <c r="F910" t="s">
+        <v>586</v>
+      </c>
+      <c r="G910" t="s">
+        <v>591</v>
+      </c>
+      <c r="H910">
+        <v>1306</v>
+      </c>
+      <c r="I910">
+        <v>0</v>
+      </c>
+      <c r="J910">
+        <v>0</v>
+      </c>
+      <c r="K910">
+        <v>0</v>
+      </c>
+      <c r="L910">
+        <v>0</v>
+      </c>
+      <c r="M910" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="911" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B911" t="s">
+        <v>585</v>
+      </c>
+      <c r="C911" t="s">
+        <v>586</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E911" t="s">
+        <v>585</v>
+      </c>
+      <c r="F911" t="s">
+        <v>586</v>
+      </c>
+      <c r="G911" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H911">
+        <v>1307</v>
+      </c>
+      <c r="I911">
+        <v>0</v>
+      </c>
+      <c r="J911">
+        <v>0</v>
+      </c>
+      <c r="K911">
+        <v>0</v>
+      </c>
+      <c r="L911">
+        <v>0</v>
+      </c>
+      <c r="M911" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="912" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B912" t="s">
+        <v>585</v>
+      </c>
+      <c r="C912" t="s">
+        <v>586</v>
+      </c>
+      <c r="D912" t="s">
+        <v>586</v>
+      </c>
+      <c r="E912" t="s">
+        <v>585</v>
+      </c>
+      <c r="F912" t="s">
+        <v>586</v>
+      </c>
+      <c r="G912" t="s">
+        <v>586</v>
+      </c>
+      <c r="H912">
+        <v>1309</v>
+      </c>
+      <c r="I912">
+        <v>0</v>
+      </c>
+      <c r="J912">
+        <v>0</v>
+      </c>
+      <c r="K912">
+        <v>0</v>
+      </c>
+      <c r="L912">
+        <v>0</v>
+      </c>
+      <c r="M912" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="913" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B913" t="s">
+        <v>536</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E913" t="s">
+        <v>536</v>
+      </c>
+      <c r="F913" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G913" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H913">
+        <v>1312</v>
+      </c>
+      <c r="I913">
+        <v>0</v>
+      </c>
+      <c r="J913">
+        <v>3.9215686274509887E-2</v>
+      </c>
+      <c r="K913">
+        <v>0</v>
+      </c>
+      <c r="L913">
+        <v>3.9215686274509887E-2</v>
+      </c>
+      <c r="M913" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="914" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>414</v>
+      </c>
+      <c r="B914" t="s">
+        <v>346</v>
+      </c>
+      <c r="C914" t="s">
+        <v>406</v>
+      </c>
+      <c r="D914" t="s">
+        <v>415</v>
+      </c>
+      <c r="E914" t="s">
+        <v>346</v>
+      </c>
+      <c r="F914" t="s">
+        <v>406</v>
+      </c>
+      <c r="G914" t="s">
+        <v>975</v>
+      </c>
+      <c r="H914">
+        <v>1315</v>
+      </c>
+      <c r="I914">
+        <v>0</v>
+      </c>
+      <c r="J914">
+        <v>0</v>
+      </c>
+      <c r="K914">
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="L914">
+        <v>5.5555555555555691E-2</v>
+      </c>
+      <c r="M914" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="915" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>427</v>
+      </c>
+      <c r="B915" t="s">
+        <v>346</v>
+      </c>
+      <c r="C915" t="s">
+        <v>406</v>
+      </c>
+      <c r="D915" t="s">
+        <v>428</v>
+      </c>
+      <c r="E915" t="s">
+        <v>346</v>
+      </c>
+      <c r="F915" t="s">
+        <v>406</v>
+      </c>
+      <c r="G915" t="s">
+        <v>428</v>
+      </c>
+      <c r="H915">
+        <v>1316</v>
+      </c>
+      <c r="I915">
+        <v>0</v>
+      </c>
+      <c r="J915">
+        <v>0</v>
+      </c>
+      <c r="K915">
+        <v>0</v>
+      </c>
+      <c r="L915">
+        <v>0</v>
+      </c>
+      <c r="M915" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="916" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>152</v>
+      </c>
+      <c r="B916" t="s">
+        <v>109</v>
+      </c>
+      <c r="C916" t="s">
+        <v>150</v>
+      </c>
+      <c r="D916" t="s">
+        <v>153</v>
+      </c>
+      <c r="E916" t="s">
+        <v>109</v>
+      </c>
+      <c r="F916" t="s">
+        <v>150</v>
+      </c>
+      <c r="G916" t="s">
+        <v>153</v>
+      </c>
+      <c r="H916">
+        <v>1318</v>
+      </c>
+      <c r="I916">
+        <v>0</v>
+      </c>
+      <c r="J916">
+        <v>0</v>
+      </c>
+      <c r="K916">
+        <v>0</v>
+      </c>
+      <c r="L916">
+        <v>0</v>
+      </c>
+      <c r="M916" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="917" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B917" t="s">
+        <v>936</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E917" t="s">
+        <v>936</v>
+      </c>
+      <c r="F917" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G917" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H917">
+        <v>1329</v>
+      </c>
+      <c r="I917">
+        <v>0</v>
+      </c>
+      <c r="J917">
+        <v>0</v>
+      </c>
+      <c r="K917">
+        <v>0</v>
+      </c>
+      <c r="L917">
+        <v>0</v>
+      </c>
+      <c r="M917" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="918" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B918" t="s">
+        <v>936</v>
+      </c>
+      <c r="C918" t="s">
+        <v>937</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E918" t="s">
+        <v>936</v>
+      </c>
+      <c r="F918" t="s">
+        <v>937</v>
+      </c>
+      <c r="G918" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H918">
+        <v>1330</v>
+      </c>
+      <c r="I918">
+        <v>0</v>
+      </c>
+      <c r="J918">
+        <v>0</v>
+      </c>
+      <c r="K918">
+        <v>0</v>
+      </c>
+      <c r="L918">
+        <v>0</v>
+      </c>
+      <c r="M918" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="919" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B919" t="s">
+        <v>13</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E919" t="s">
+        <v>13</v>
+      </c>
+      <c r="F919" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G919" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H919">
+        <v>1335</v>
+      </c>
+      <c r="I919">
+        <v>0</v>
+      </c>
+      <c r="J919">
+        <v>0</v>
+      </c>
+      <c r="K919">
+        <v>0</v>
+      </c>
+      <c r="L919">
+        <v>0</v>
+      </c>
+      <c r="M919" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="920" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B920" t="s">
+        <v>221</v>
+      </c>
+      <c r="C920" t="s">
+        <v>252</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E920" t="s">
+        <v>221</v>
+      </c>
+      <c r="F920" t="s">
+        <v>252</v>
+      </c>
+      <c r="G920" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H920">
+        <v>1336</v>
+      </c>
+      <c r="I920">
+        <v>0</v>
+      </c>
+      <c r="J920">
+        <v>0</v>
+      </c>
+      <c r="K920">
+        <v>0</v>
+      </c>
+      <c r="L920">
+        <v>0</v>
+      </c>
+      <c r="M920" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="921" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B921" t="s">
+        <v>936</v>
+      </c>
+      <c r="C921" t="s">
+        <v>937</v>
+      </c>
+      <c r="D921" t="s">
+        <v>240</v>
+      </c>
+      <c r="E921" t="s">
+        <v>936</v>
+      </c>
+      <c r="F921" t="s">
+        <v>937</v>
+      </c>
+      <c r="G921" t="s">
+        <v>240</v>
+      </c>
+      <c r="H921">
+        <v>1337</v>
+      </c>
+      <c r="I921">
+        <v>0</v>
+      </c>
+      <c r="J921">
+        <v>0</v>
+      </c>
+      <c r="K921">
+        <v>0</v>
+      </c>
+      <c r="L921">
+        <v>0</v>
+      </c>
+      <c r="M921" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="922" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>927</v>
+      </c>
+      <c r="B922" t="s">
+        <v>913</v>
+      </c>
+      <c r="C922" t="s">
+        <v>925</v>
+      </c>
+      <c r="D922" t="s">
+        <v>925</v>
+      </c>
+      <c r="E922" t="s">
+        <v>913</v>
+      </c>
+      <c r="F922" t="s">
+        <v>925</v>
+      </c>
+      <c r="G922" t="s">
+        <v>925</v>
+      </c>
+      <c r="H922">
+        <v>1338</v>
+      </c>
+      <c r="I922">
+        <v>0</v>
+      </c>
+      <c r="J922">
+        <v>0</v>
+      </c>
+      <c r="K922">
+        <v>0</v>
+      </c>
+      <c r="L922">
+        <v>0</v>
+      </c>
+      <c r="M922" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="923" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>918</v>
+      </c>
+      <c r="B923" t="s">
+        <v>913</v>
+      </c>
+      <c r="C923" t="s">
+        <v>919</v>
+      </c>
+      <c r="D923" t="s">
+        <v>920</v>
+      </c>
+      <c r="E923" t="s">
+        <v>913</v>
+      </c>
+      <c r="F923" t="s">
+        <v>919</v>
+      </c>
+      <c r="G923" t="s">
+        <v>920</v>
+      </c>
+      <c r="H923">
+        <v>1339</v>
+      </c>
+      <c r="I923">
+        <v>0</v>
+      </c>
+      <c r="J923">
+        <v>0</v>
+      </c>
+      <c r="K923">
+        <v>0</v>
+      </c>
+      <c r="L923">
+        <v>0</v>
+      </c>
+      <c r="M923" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="924" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B924" t="s">
+        <v>785</v>
+      </c>
+      <c r="C924" t="s">
+        <v>861</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E924" t="s">
+        <v>785</v>
+      </c>
+      <c r="F924" t="s">
+        <v>861</v>
+      </c>
+      <c r="G924" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H924">
+        <v>1342</v>
+      </c>
+      <c r="I924">
+        <v>0</v>
+      </c>
+      <c r="J924">
+        <v>0</v>
+      </c>
+      <c r="K924">
+        <v>0</v>
+      </c>
+      <c r="L924">
+        <v>0</v>
+      </c>
+      <c r="M924" t="s">
+        <v>932</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M854" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M921" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_FUZZY-at-local-LISTO.xlsx
+++ b/_FUZZY-at-local-LISTO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\egtpi-gs-at\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9331B6EC-D7B7-48E1-830A-E4228AC05D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80903D0-EEEA-4DE8-88AD-9044F976102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$921</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$989</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7375" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8038" uniqueCount="1290">
   <si>
     <t>UBIGEO</t>
   </si>
@@ -3770,6 +3770,129 @@
   </si>
   <si>
     <t>160113</t>
+  </si>
+  <si>
+    <t>030702</t>
+  </si>
+  <si>
+    <t>CURPAHUASI</t>
+  </si>
+  <si>
+    <t>030304</t>
+  </si>
+  <si>
+    <t>ANTABAMBA</t>
+  </si>
+  <si>
+    <t>JUAN ESPINOZA MEDRANO</t>
+  </si>
+  <si>
+    <t>080805</t>
+  </si>
+  <si>
+    <t>ESPINAR</t>
+  </si>
+  <si>
+    <t>PALLPATA</t>
+  </si>
+  <si>
+    <t>080506</t>
+  </si>
+  <si>
+    <t>080504</t>
+  </si>
+  <si>
+    <t>LANGUI</t>
+  </si>
+  <si>
+    <t>080808</t>
+  </si>
+  <si>
+    <t>ALTO PICHIGUA</t>
+  </si>
+  <si>
+    <t>080806</t>
+  </si>
+  <si>
+    <t>PICHIGUA</t>
+  </si>
+  <si>
+    <t>080807</t>
+  </si>
+  <si>
+    <t>SUYCKUTAMBO</t>
+  </si>
+  <si>
+    <t>SUYKUTAMBO</t>
+  </si>
+  <si>
+    <t>080804</t>
+  </si>
+  <si>
+    <t>OCORURO</t>
+  </si>
+  <si>
+    <t>080801</t>
+  </si>
+  <si>
+    <t>220808</t>
+  </si>
+  <si>
+    <t>YORONGOS</t>
+  </si>
+  <si>
+    <t>220913</t>
+  </si>
+  <si>
+    <t>SAUCE</t>
+  </si>
+  <si>
+    <t>220703</t>
+  </si>
+  <si>
+    <t>CASPISAPA</t>
+  </si>
+  <si>
+    <t>051006</t>
+  </si>
+  <si>
+    <t>CAYARA</t>
+  </si>
+  <si>
+    <t>051012</t>
+  </si>
+  <si>
+    <t>VILCANCHOS</t>
+  </si>
+  <si>
+    <t>051108</t>
+  </si>
+  <si>
+    <t>VISCHONGO</t>
+  </si>
+  <si>
+    <t>FAJARDO</t>
+  </si>
+  <si>
+    <t>110207</t>
+  </si>
+  <si>
+    <t>220402</t>
+  </si>
+  <si>
+    <t>ALTO SAPOSOA</t>
+  </si>
+  <si>
+    <t>081304</t>
+  </si>
+  <si>
+    <t>MACHUPICCHU</t>
+  </si>
+  <si>
+    <t>220908</t>
+  </si>
+  <si>
+    <t>JUAN GUERRA</t>
   </si>
 </sst>
 </file>
@@ -4157,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M924"/>
+  <dimension ref="A1:M1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
-      <selection activeCell="M922" sqref="M922:M924"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="M1008" sqref="M1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42052,8 +42175,3411 @@
         <v>932</v>
       </c>
     </row>
+    <row r="925" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B925" t="s">
+        <v>109</v>
+      </c>
+      <c r="C925" t="s">
+        <v>155</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E925" t="s">
+        <v>109</v>
+      </c>
+      <c r="F925" t="s">
+        <v>155</v>
+      </c>
+      <c r="G925" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H925">
+        <v>1343</v>
+      </c>
+      <c r="I925">
+        <v>0</v>
+      </c>
+      <c r="J925">
+        <v>0</v>
+      </c>
+      <c r="K925">
+        <v>0</v>
+      </c>
+      <c r="L925">
+        <v>0</v>
+      </c>
+      <c r="M925" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="926" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>592</v>
+      </c>
+      <c r="B926" t="s">
+        <v>585</v>
+      </c>
+      <c r="C926" t="s">
+        <v>586</v>
+      </c>
+      <c r="D926" t="s">
+        <v>593</v>
+      </c>
+      <c r="E926" t="s">
+        <v>585</v>
+      </c>
+      <c r="F926" t="s">
+        <v>586</v>
+      </c>
+      <c r="G926" t="s">
+        <v>593</v>
+      </c>
+      <c r="H926">
+        <v>1346</v>
+      </c>
+      <c r="I926">
+        <v>0</v>
+      </c>
+      <c r="J926">
+        <v>0</v>
+      </c>
+      <c r="K926">
+        <v>0</v>
+      </c>
+      <c r="L926">
+        <v>0</v>
+      </c>
+      <c r="M926" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="927" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B927" t="s">
+        <v>317</v>
+      </c>
+      <c r="C927" t="s">
+        <v>708</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E927" t="s">
+        <v>317</v>
+      </c>
+      <c r="F927" t="s">
+        <v>708</v>
+      </c>
+      <c r="G927" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H927">
+        <v>1347</v>
+      </c>
+      <c r="I927">
+        <v>0</v>
+      </c>
+      <c r="J927">
+        <v>0</v>
+      </c>
+      <c r="K927">
+        <v>0</v>
+      </c>
+      <c r="L927">
+        <v>0</v>
+      </c>
+      <c r="M927" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="928" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B928" t="s">
+        <v>109</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E928" t="s">
+        <v>109</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G928" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H928">
+        <v>1348</v>
+      </c>
+      <c r="I928">
+        <v>0</v>
+      </c>
+      <c r="J928">
+        <v>0</v>
+      </c>
+      <c r="K928">
+        <v>0</v>
+      </c>
+      <c r="L928">
+        <v>0</v>
+      </c>
+      <c r="M928" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="929" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>387</v>
+      </c>
+      <c r="B929" t="s">
+        <v>346</v>
+      </c>
+      <c r="C929" t="s">
+        <v>346</v>
+      </c>
+      <c r="D929" t="s">
+        <v>388</v>
+      </c>
+      <c r="E929" t="s">
+        <v>346</v>
+      </c>
+      <c r="F929" t="s">
+        <v>346</v>
+      </c>
+      <c r="G929" t="s">
+        <v>388</v>
+      </c>
+      <c r="H929">
+        <v>1350</v>
+      </c>
+      <c r="I929">
+        <v>0</v>
+      </c>
+      <c r="J929">
+        <v>0</v>
+      </c>
+      <c r="K929">
+        <v>0</v>
+      </c>
+      <c r="L929">
+        <v>0</v>
+      </c>
+      <c r="M929" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="930" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>622</v>
+      </c>
+      <c r="B930" t="s">
+        <v>585</v>
+      </c>
+      <c r="C930" t="s">
+        <v>585</v>
+      </c>
+      <c r="D930" t="s">
+        <v>585</v>
+      </c>
+      <c r="E930" t="s">
+        <v>585</v>
+      </c>
+      <c r="F930" t="s">
+        <v>585</v>
+      </c>
+      <c r="G930" t="s">
+        <v>585</v>
+      </c>
+      <c r="H930">
+        <v>1351</v>
+      </c>
+      <c r="I930">
+        <v>0</v>
+      </c>
+      <c r="J930">
+        <v>0</v>
+      </c>
+      <c r="K930">
+        <v>0</v>
+      </c>
+      <c r="L930">
+        <v>0</v>
+      </c>
+      <c r="M930" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="931" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B931" t="s">
+        <v>317</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E931" t="s">
+        <v>317</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G931" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H931">
+        <v>1353</v>
+      </c>
+      <c r="I931">
+        <v>0</v>
+      </c>
+      <c r="J931">
+        <v>0</v>
+      </c>
+      <c r="K931">
+        <v>0</v>
+      </c>
+      <c r="L931">
+        <v>0</v>
+      </c>
+      <c r="M931" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="932" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B932" t="s">
+        <v>317</v>
+      </c>
+      <c r="C932" t="s">
+        <v>321</v>
+      </c>
+      <c r="D932" t="s">
+        <v>473</v>
+      </c>
+      <c r="E932" t="s">
+        <v>317</v>
+      </c>
+      <c r="F932" t="s">
+        <v>321</v>
+      </c>
+      <c r="G932" t="s">
+        <v>473</v>
+      </c>
+      <c r="H932">
+        <v>1354</v>
+      </c>
+      <c r="I932">
+        <v>0</v>
+      </c>
+      <c r="J932">
+        <v>0</v>
+      </c>
+      <c r="K932">
+        <v>0</v>
+      </c>
+      <c r="L932">
+        <v>0</v>
+      </c>
+      <c r="M932" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="933" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B933" t="s">
+        <v>317</v>
+      </c>
+      <c r="C933" t="s">
+        <v>321</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E933" t="s">
+        <v>317</v>
+      </c>
+      <c r="F933" t="s">
+        <v>321</v>
+      </c>
+      <c r="G933" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H933">
+        <v>1355</v>
+      </c>
+      <c r="I933">
+        <v>0</v>
+      </c>
+      <c r="J933">
+        <v>0</v>
+      </c>
+      <c r="K933">
+        <v>0</v>
+      </c>
+      <c r="L933">
+        <v>0</v>
+      </c>
+      <c r="M933" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B934" t="s">
+        <v>317</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E934" t="s">
+        <v>317</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G934" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H934">
+        <v>1356</v>
+      </c>
+      <c r="I934">
+        <v>0</v>
+      </c>
+      <c r="J934">
+        <v>0</v>
+      </c>
+      <c r="K934">
+        <v>0</v>
+      </c>
+      <c r="L934">
+        <v>0</v>
+      </c>
+      <c r="M934" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="935" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B935" t="s">
+        <v>317</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E935" t="s">
+        <v>317</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G935" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H935">
+        <v>1357</v>
+      </c>
+      <c r="I935">
+        <v>0</v>
+      </c>
+      <c r="J935">
+        <v>0</v>
+      </c>
+      <c r="K935">
+        <v>0</v>
+      </c>
+      <c r="L935">
+        <v>0</v>
+      </c>
+      <c r="M935" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="936" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B936" t="s">
+        <v>317</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E936" t="s">
+        <v>317</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G936" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H936">
+        <v>1360</v>
+      </c>
+      <c r="I936">
+        <v>0</v>
+      </c>
+      <c r="J936">
+        <v>0</v>
+      </c>
+      <c r="K936">
+        <v>3.030303030303028E-2</v>
+      </c>
+      <c r="L936">
+        <v>3.030303030303028E-2</v>
+      </c>
+      <c r="M936" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="937" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>323</v>
+      </c>
+      <c r="B937" t="s">
+        <v>317</v>
+      </c>
+      <c r="C937" t="s">
+        <v>321</v>
+      </c>
+      <c r="D937" t="s">
+        <v>324</v>
+      </c>
+      <c r="E937" t="s">
+        <v>317</v>
+      </c>
+      <c r="F937" t="s">
+        <v>321</v>
+      </c>
+      <c r="G937" t="s">
+        <v>324</v>
+      </c>
+      <c r="H937">
+        <v>1361</v>
+      </c>
+      <c r="I937">
+        <v>0</v>
+      </c>
+      <c r="J937">
+        <v>0</v>
+      </c>
+      <c r="K937">
+        <v>0</v>
+      </c>
+      <c r="L937">
+        <v>0</v>
+      </c>
+      <c r="M937" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="938" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>790</v>
+      </c>
+      <c r="B938" t="s">
+        <v>785</v>
+      </c>
+      <c r="C938" t="s">
+        <v>791</v>
+      </c>
+      <c r="D938" t="s">
+        <v>605</v>
+      </c>
+      <c r="E938" t="s">
+        <v>785</v>
+      </c>
+      <c r="F938" t="s">
+        <v>791</v>
+      </c>
+      <c r="G938" t="s">
+        <v>605</v>
+      </c>
+      <c r="H938">
+        <v>1362</v>
+      </c>
+      <c r="I938">
+        <v>0</v>
+      </c>
+      <c r="J938">
+        <v>0</v>
+      </c>
+      <c r="K938">
+        <v>0</v>
+      </c>
+      <c r="L938">
+        <v>0</v>
+      </c>
+      <c r="M938" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="939" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B939" t="s">
+        <v>317</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E939" t="s">
+        <v>317</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G939" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H939">
+        <v>1363</v>
+      </c>
+      <c r="I939">
+        <v>0</v>
+      </c>
+      <c r="J939">
+        <v>0</v>
+      </c>
+      <c r="K939">
+        <v>0</v>
+      </c>
+      <c r="L939">
+        <v>0</v>
+      </c>
+      <c r="M939" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="940" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B940" t="s">
+        <v>42</v>
+      </c>
+      <c r="C940" t="s">
+        <v>968</v>
+      </c>
+      <c r="D940" t="s">
+        <v>306</v>
+      </c>
+      <c r="E940" t="s">
+        <v>42</v>
+      </c>
+      <c r="F940" t="s">
+        <v>968</v>
+      </c>
+      <c r="G940" t="s">
+        <v>306</v>
+      </c>
+      <c r="H940">
+        <v>1366</v>
+      </c>
+      <c r="I940">
+        <v>0</v>
+      </c>
+      <c r="J940">
+        <v>0</v>
+      </c>
+      <c r="K940">
+        <v>0</v>
+      </c>
+      <c r="L940">
+        <v>0</v>
+      </c>
+      <c r="M940" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="941" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>806</v>
+      </c>
+      <c r="B941" t="s">
+        <v>785</v>
+      </c>
+      <c r="C941" t="s">
+        <v>801</v>
+      </c>
+      <c r="D941" t="s">
+        <v>807</v>
+      </c>
+      <c r="E941" t="s">
+        <v>785</v>
+      </c>
+      <c r="F941" t="s">
+        <v>801</v>
+      </c>
+      <c r="G941" t="s">
+        <v>807</v>
+      </c>
+      <c r="H941">
+        <v>1367</v>
+      </c>
+      <c r="I941">
+        <v>0</v>
+      </c>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="K941">
+        <v>0</v>
+      </c>
+      <c r="L941">
+        <v>0</v>
+      </c>
+      <c r="M941" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="942" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>815</v>
+      </c>
+      <c r="B942" t="s">
+        <v>785</v>
+      </c>
+      <c r="C942" t="s">
+        <v>801</v>
+      </c>
+      <c r="D942" t="s">
+        <v>816</v>
+      </c>
+      <c r="E942" t="s">
+        <v>785</v>
+      </c>
+      <c r="F942" t="s">
+        <v>801</v>
+      </c>
+      <c r="G942" t="s">
+        <v>816</v>
+      </c>
+      <c r="H942">
+        <v>1368</v>
+      </c>
+      <c r="I942">
+        <v>0</v>
+      </c>
+      <c r="J942">
+        <v>0</v>
+      </c>
+      <c r="K942">
+        <v>0</v>
+      </c>
+      <c r="L942">
+        <v>0</v>
+      </c>
+      <c r="M942" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="943" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>845</v>
+      </c>
+      <c r="B943" t="s">
+        <v>785</v>
+      </c>
+      <c r="C943" t="s">
+        <v>838</v>
+      </c>
+      <c r="D943" t="s">
+        <v>846</v>
+      </c>
+      <c r="E943" t="s">
+        <v>785</v>
+      </c>
+      <c r="F943" t="s">
+        <v>838</v>
+      </c>
+      <c r="G943" t="s">
+        <v>846</v>
+      </c>
+      <c r="H943">
+        <v>1369</v>
+      </c>
+      <c r="I943">
+        <v>0</v>
+      </c>
+      <c r="J943">
+        <v>0</v>
+      </c>
+      <c r="K943">
+        <v>0</v>
+      </c>
+      <c r="L943">
+        <v>0</v>
+      </c>
+      <c r="M943" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="944" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>813</v>
+      </c>
+      <c r="B944" t="s">
+        <v>785</v>
+      </c>
+      <c r="C944" t="s">
+        <v>801</v>
+      </c>
+      <c r="D944" t="s">
+        <v>814</v>
+      </c>
+      <c r="E944" t="s">
+        <v>785</v>
+      </c>
+      <c r="F944" t="s">
+        <v>801</v>
+      </c>
+      <c r="G944" t="s">
+        <v>814</v>
+      </c>
+      <c r="H944">
+        <v>1370</v>
+      </c>
+      <c r="I944">
+        <v>0</v>
+      </c>
+      <c r="J944">
+        <v>0</v>
+      </c>
+      <c r="K944">
+        <v>0</v>
+      </c>
+      <c r="L944">
+        <v>0</v>
+      </c>
+      <c r="M944" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>813</v>
+      </c>
+      <c r="B945" t="s">
+        <v>785</v>
+      </c>
+      <c r="C945" t="s">
+        <v>801</v>
+      </c>
+      <c r="D945" t="s">
+        <v>814</v>
+      </c>
+      <c r="E945" t="s">
+        <v>785</v>
+      </c>
+      <c r="F945" t="s">
+        <v>801</v>
+      </c>
+      <c r="G945" t="s">
+        <v>814</v>
+      </c>
+      <c r="H945">
+        <v>1371</v>
+      </c>
+      <c r="I945">
+        <v>0</v>
+      </c>
+      <c r="J945">
+        <v>0</v>
+      </c>
+      <c r="K945">
+        <v>0</v>
+      </c>
+      <c r="L945">
+        <v>0</v>
+      </c>
+      <c r="M945" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B946" t="s">
+        <v>785</v>
+      </c>
+      <c r="C946" t="s">
+        <v>785</v>
+      </c>
+      <c r="D946" t="s">
+        <v>810</v>
+      </c>
+      <c r="E946" t="s">
+        <v>785</v>
+      </c>
+      <c r="F946" t="s">
+        <v>785</v>
+      </c>
+      <c r="G946" t="s">
+        <v>809</v>
+      </c>
+      <c r="H946">
+        <v>1374</v>
+      </c>
+      <c r="I946">
+        <v>0</v>
+      </c>
+      <c r="J946">
+        <v>0</v>
+      </c>
+      <c r="K946">
+        <v>0.2373737373737374</v>
+      </c>
+      <c r="L946">
+        <v>0.2373737373737374</v>
+      </c>
+      <c r="M946" s="2">
+        <v>220509</v>
+      </c>
+    </row>
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B947" t="s">
+        <v>317</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E947" t="s">
+        <v>317</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G947" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H947">
+        <v>1375</v>
+      </c>
+      <c r="I947">
+        <v>0</v>
+      </c>
+      <c r="J947">
+        <v>0</v>
+      </c>
+      <c r="K947">
+        <v>0</v>
+      </c>
+      <c r="L947">
+        <v>0</v>
+      </c>
+      <c r="M947" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>918</v>
+      </c>
+      <c r="B948" t="s">
+        <v>913</v>
+      </c>
+      <c r="C948" t="s">
+        <v>919</v>
+      </c>
+      <c r="D948" t="s">
+        <v>920</v>
+      </c>
+      <c r="E948" t="s">
+        <v>913</v>
+      </c>
+      <c r="F948" t="s">
+        <v>919</v>
+      </c>
+      <c r="G948" t="s">
+        <v>920</v>
+      </c>
+      <c r="H948">
+        <v>1376</v>
+      </c>
+      <c r="I948">
+        <v>0</v>
+      </c>
+      <c r="J948">
+        <v>0</v>
+      </c>
+      <c r="K948">
+        <v>0</v>
+      </c>
+      <c r="L948">
+        <v>0</v>
+      </c>
+      <c r="M948" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>36</v>
+      </c>
+      <c r="B949" t="s">
+        <v>13</v>
+      </c>
+      <c r="C949" t="s">
+        <v>34</v>
+      </c>
+      <c r="D949" t="s">
+        <v>37</v>
+      </c>
+      <c r="E949" t="s">
+        <v>13</v>
+      </c>
+      <c r="F949" t="s">
+        <v>34</v>
+      </c>
+      <c r="G949" t="s">
+        <v>37</v>
+      </c>
+      <c r="H949">
+        <v>1377</v>
+      </c>
+      <c r="I949">
+        <v>0</v>
+      </c>
+      <c r="J949">
+        <v>0</v>
+      </c>
+      <c r="K949">
+        <v>0</v>
+      </c>
+      <c r="L949">
+        <v>0</v>
+      </c>
+      <c r="M949" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B950" t="s">
+        <v>785</v>
+      </c>
+      <c r="C950" t="s">
+        <v>827</v>
+      </c>
+      <c r="D950" t="s">
+        <v>827</v>
+      </c>
+      <c r="E950" t="s">
+        <v>785</v>
+      </c>
+      <c r="F950" t="s">
+        <v>827</v>
+      </c>
+      <c r="G950" t="s">
+        <v>827</v>
+      </c>
+      <c r="H950">
+        <v>1378</v>
+      </c>
+      <c r="I950">
+        <v>0</v>
+      </c>
+      <c r="J950">
+        <v>0</v>
+      </c>
+      <c r="K950">
+        <v>0</v>
+      </c>
+      <c r="L950">
+        <v>0</v>
+      </c>
+      <c r="M950" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>833</v>
+      </c>
+      <c r="B951" t="s">
+        <v>785</v>
+      </c>
+      <c r="C951" t="s">
+        <v>827</v>
+      </c>
+      <c r="D951" t="s">
+        <v>834</v>
+      </c>
+      <c r="E951" t="s">
+        <v>785</v>
+      </c>
+      <c r="F951" t="s">
+        <v>827</v>
+      </c>
+      <c r="G951" t="s">
+        <v>834</v>
+      </c>
+      <c r="H951">
+        <v>1379</v>
+      </c>
+      <c r="I951">
+        <v>0</v>
+      </c>
+      <c r="J951">
+        <v>0</v>
+      </c>
+      <c r="K951">
+        <v>0</v>
+      </c>
+      <c r="L951">
+        <v>0</v>
+      </c>
+      <c r="M951" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>829</v>
+      </c>
+      <c r="B952" t="s">
+        <v>785</v>
+      </c>
+      <c r="C952" t="s">
+        <v>827</v>
+      </c>
+      <c r="D952" t="s">
+        <v>830</v>
+      </c>
+      <c r="E952" t="s">
+        <v>785</v>
+      </c>
+      <c r="F952" t="s">
+        <v>827</v>
+      </c>
+      <c r="G952" t="s">
+        <v>830</v>
+      </c>
+      <c r="H952">
+        <v>1380</v>
+      </c>
+      <c r="I952">
+        <v>0</v>
+      </c>
+      <c r="J952">
+        <v>0</v>
+      </c>
+      <c r="K952">
+        <v>0</v>
+      </c>
+      <c r="L952">
+        <v>0</v>
+      </c>
+      <c r="M952" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>826</v>
+      </c>
+      <c r="B953" t="s">
+        <v>785</v>
+      </c>
+      <c r="C953" t="s">
+        <v>827</v>
+      </c>
+      <c r="D953" t="s">
+        <v>828</v>
+      </c>
+      <c r="E953" t="s">
+        <v>785</v>
+      </c>
+      <c r="F953" t="s">
+        <v>827</v>
+      </c>
+      <c r="G953" t="s">
+        <v>828</v>
+      </c>
+      <c r="H953">
+        <v>1381</v>
+      </c>
+      <c r="I953">
+        <v>0</v>
+      </c>
+      <c r="J953">
+        <v>0</v>
+      </c>
+      <c r="K953">
+        <v>0</v>
+      </c>
+      <c r="L953">
+        <v>0</v>
+      </c>
+      <c r="M953" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B954" t="s">
+        <v>785</v>
+      </c>
+      <c r="C954" t="s">
+        <v>785</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E954" t="s">
+        <v>785</v>
+      </c>
+      <c r="F954" t="s">
+        <v>785</v>
+      </c>
+      <c r="G954" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H954">
+        <v>1382</v>
+      </c>
+      <c r="I954">
+        <v>0</v>
+      </c>
+      <c r="J954">
+        <v>0</v>
+      </c>
+      <c r="K954">
+        <v>0</v>
+      </c>
+      <c r="L954">
+        <v>0</v>
+      </c>
+      <c r="M954" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B955" t="s">
+        <v>785</v>
+      </c>
+      <c r="C955" t="s">
+        <v>785</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E955" t="s">
+        <v>785</v>
+      </c>
+      <c r="F955" t="s">
+        <v>785</v>
+      </c>
+      <c r="G955" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H955">
+        <v>1383</v>
+      </c>
+      <c r="I955">
+        <v>0</v>
+      </c>
+      <c r="J955">
+        <v>0</v>
+      </c>
+      <c r="K955">
+        <v>0</v>
+      </c>
+      <c r="L955">
+        <v>0</v>
+      </c>
+      <c r="M955" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>848</v>
+      </c>
+      <c r="B956" t="s">
+        <v>785</v>
+      </c>
+      <c r="C956" t="s">
+        <v>849</v>
+      </c>
+      <c r="D956" t="s">
+        <v>850</v>
+      </c>
+      <c r="E956" t="s">
+        <v>785</v>
+      </c>
+      <c r="F956" t="s">
+        <v>849</v>
+      </c>
+      <c r="G956" t="s">
+        <v>850</v>
+      </c>
+      <c r="H956">
+        <v>1384</v>
+      </c>
+      <c r="I956">
+        <v>0</v>
+      </c>
+      <c r="J956">
+        <v>0</v>
+      </c>
+      <c r="K956">
+        <v>0</v>
+      </c>
+      <c r="L956">
+        <v>0</v>
+      </c>
+      <c r="M956" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B957" t="s">
+        <v>785</v>
+      </c>
+      <c r="C957" t="s">
+        <v>849</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E957" t="s">
+        <v>785</v>
+      </c>
+      <c r="F957" t="s">
+        <v>849</v>
+      </c>
+      <c r="G957" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H957">
+        <v>1385</v>
+      </c>
+      <c r="I957">
+        <v>0</v>
+      </c>
+      <c r="J957">
+        <v>0</v>
+      </c>
+      <c r="K957">
+        <v>0</v>
+      </c>
+      <c r="L957">
+        <v>0</v>
+      </c>
+      <c r="M957" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B958" t="s">
+        <v>785</v>
+      </c>
+      <c r="C958" t="s">
+        <v>785</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E958" t="s">
+        <v>785</v>
+      </c>
+      <c r="F958" t="s">
+        <v>785</v>
+      </c>
+      <c r="G958" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H958">
+        <v>1386</v>
+      </c>
+      <c r="I958">
+        <v>0</v>
+      </c>
+      <c r="J958">
+        <v>0</v>
+      </c>
+      <c r="K958">
+        <v>0</v>
+      </c>
+      <c r="L958">
+        <v>0</v>
+      </c>
+      <c r="M958" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>843</v>
+      </c>
+      <c r="B959" t="s">
+        <v>785</v>
+      </c>
+      <c r="C959" t="s">
+        <v>838</v>
+      </c>
+      <c r="D959" t="s">
+        <v>844</v>
+      </c>
+      <c r="E959" t="s">
+        <v>785</v>
+      </c>
+      <c r="F959" t="s">
+        <v>838</v>
+      </c>
+      <c r="G959" t="s">
+        <v>844</v>
+      </c>
+      <c r="H959">
+        <v>1387</v>
+      </c>
+      <c r="I959">
+        <v>0</v>
+      </c>
+      <c r="J959">
+        <v>0</v>
+      </c>
+      <c r="K959">
+        <v>0</v>
+      </c>
+      <c r="L959">
+        <v>0</v>
+      </c>
+      <c r="M959" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>840</v>
+      </c>
+      <c r="B960" t="s">
+        <v>785</v>
+      </c>
+      <c r="C960" t="s">
+        <v>838</v>
+      </c>
+      <c r="D960" t="s">
+        <v>838</v>
+      </c>
+      <c r="E960" t="s">
+        <v>785</v>
+      </c>
+      <c r="F960" t="s">
+        <v>838</v>
+      </c>
+      <c r="G960" t="s">
+        <v>838</v>
+      </c>
+      <c r="H960">
+        <v>1388</v>
+      </c>
+      <c r="I960">
+        <v>0</v>
+      </c>
+      <c r="J960">
+        <v>0</v>
+      </c>
+      <c r="K960">
+        <v>0</v>
+      </c>
+      <c r="L960">
+        <v>0</v>
+      </c>
+      <c r="M960" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="961" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>841</v>
+      </c>
+      <c r="B961" t="s">
+        <v>785</v>
+      </c>
+      <c r="C961" t="s">
+        <v>838</v>
+      </c>
+      <c r="D961" t="s">
+        <v>842</v>
+      </c>
+      <c r="E961" t="s">
+        <v>785</v>
+      </c>
+      <c r="F961" t="s">
+        <v>838</v>
+      </c>
+      <c r="G961" t="s">
+        <v>842</v>
+      </c>
+      <c r="H961">
+        <v>1389</v>
+      </c>
+      <c r="I961">
+        <v>0</v>
+      </c>
+      <c r="J961">
+        <v>0</v>
+      </c>
+      <c r="K961">
+        <v>0</v>
+      </c>
+      <c r="L961">
+        <v>0</v>
+      </c>
+      <c r="M961" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="962" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B962" t="s">
+        <v>785</v>
+      </c>
+      <c r="C962" t="s">
+        <v>838</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E962" t="s">
+        <v>785</v>
+      </c>
+      <c r="F962" t="s">
+        <v>838</v>
+      </c>
+      <c r="G962" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H962">
+        <v>1390</v>
+      </c>
+      <c r="I962">
+        <v>0</v>
+      </c>
+      <c r="J962">
+        <v>0</v>
+      </c>
+      <c r="K962">
+        <v>0</v>
+      </c>
+      <c r="L962">
+        <v>0</v>
+      </c>
+      <c r="M962" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="963" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>856</v>
+      </c>
+      <c r="B963" t="s">
+        <v>785</v>
+      </c>
+      <c r="C963" t="s">
+        <v>849</v>
+      </c>
+      <c r="D963" t="s">
+        <v>849</v>
+      </c>
+      <c r="E963" t="s">
+        <v>785</v>
+      </c>
+      <c r="F963" t="s">
+        <v>849</v>
+      </c>
+      <c r="G963" t="s">
+        <v>849</v>
+      </c>
+      <c r="H963">
+        <v>1391</v>
+      </c>
+      <c r="I963">
+        <v>0</v>
+      </c>
+      <c r="J963">
+        <v>0</v>
+      </c>
+      <c r="K963">
+        <v>0</v>
+      </c>
+      <c r="L963">
+        <v>0</v>
+      </c>
+      <c r="M963" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>808</v>
+      </c>
+      <c r="B964" t="s">
+        <v>785</v>
+      </c>
+      <c r="C964" t="s">
+        <v>801</v>
+      </c>
+      <c r="D964" t="s">
+        <v>809</v>
+      </c>
+      <c r="E964" t="s">
+        <v>785</v>
+      </c>
+      <c r="F964" t="s">
+        <v>801</v>
+      </c>
+      <c r="G964" t="s">
+        <v>809</v>
+      </c>
+      <c r="H964">
+        <v>1392</v>
+      </c>
+      <c r="I964">
+        <v>0</v>
+      </c>
+      <c r="J964">
+        <v>0</v>
+      </c>
+      <c r="K964">
+        <v>0</v>
+      </c>
+      <c r="L964">
+        <v>0</v>
+      </c>
+      <c r="M964" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="965" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>803</v>
+      </c>
+      <c r="B965" t="s">
+        <v>785</v>
+      </c>
+      <c r="C965" t="s">
+        <v>801</v>
+      </c>
+      <c r="D965" t="s">
+        <v>804</v>
+      </c>
+      <c r="E965" t="s">
+        <v>785</v>
+      </c>
+      <c r="F965" t="s">
+        <v>801</v>
+      </c>
+      <c r="G965" t="s">
+        <v>805</v>
+      </c>
+      <c r="H965">
+        <v>1393</v>
+      </c>
+      <c r="I965">
+        <v>0</v>
+      </c>
+      <c r="J965">
+        <v>0</v>
+      </c>
+      <c r="K965">
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="L965">
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="M965" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="966" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>815</v>
+      </c>
+      <c r="B966" t="s">
+        <v>785</v>
+      </c>
+      <c r="C966" t="s">
+        <v>801</v>
+      </c>
+      <c r="D966" t="s">
+        <v>816</v>
+      </c>
+      <c r="E966" t="s">
+        <v>785</v>
+      </c>
+      <c r="F966" t="s">
+        <v>801</v>
+      </c>
+      <c r="G966" t="s">
+        <v>816</v>
+      </c>
+      <c r="H966">
+        <v>1394</v>
+      </c>
+      <c r="I966">
+        <v>0</v>
+      </c>
+      <c r="J966">
+        <v>0</v>
+      </c>
+      <c r="K966">
+        <v>0</v>
+      </c>
+      <c r="L966">
+        <v>0</v>
+      </c>
+      <c r="M966" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="967" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B967" t="s">
+        <v>221</v>
+      </c>
+      <c r="C967" t="s">
+        <v>287</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E967" t="s">
+        <v>221</v>
+      </c>
+      <c r="F967" t="s">
+        <v>287</v>
+      </c>
+      <c r="G967" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H967">
+        <v>1403</v>
+      </c>
+      <c r="I967">
+        <v>0</v>
+      </c>
+      <c r="J967">
+        <v>0</v>
+      </c>
+      <c r="K967">
+        <v>0</v>
+      </c>
+      <c r="L967">
+        <v>0</v>
+      </c>
+      <c r="M967" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="968" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B968" t="s">
+        <v>221</v>
+      </c>
+      <c r="C968" t="s">
+        <v>287</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E968" t="s">
+        <v>221</v>
+      </c>
+      <c r="F968" t="s">
+        <v>287</v>
+      </c>
+      <c r="G968" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H968">
+        <v>1404</v>
+      </c>
+      <c r="I968">
+        <v>0</v>
+      </c>
+      <c r="J968">
+        <v>0</v>
+      </c>
+      <c r="K968">
+        <v>0</v>
+      </c>
+      <c r="L968">
+        <v>0</v>
+      </c>
+      <c r="M968" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="969" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B969" t="s">
+        <v>221</v>
+      </c>
+      <c r="C969" t="s">
+        <v>292</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E969" t="s">
+        <v>221</v>
+      </c>
+      <c r="F969" t="s">
+        <v>292</v>
+      </c>
+      <c r="G969" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H969">
+        <v>1405</v>
+      </c>
+      <c r="I969">
+        <v>0</v>
+      </c>
+      <c r="J969">
+        <v>0</v>
+      </c>
+      <c r="K969">
+        <v>0</v>
+      </c>
+      <c r="L969">
+        <v>0</v>
+      </c>
+      <c r="M969" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="970" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>291</v>
+      </c>
+      <c r="B970" t="s">
+        <v>221</v>
+      </c>
+      <c r="C970" t="s">
+        <v>292</v>
+      </c>
+      <c r="D970" t="s">
+        <v>293</v>
+      </c>
+      <c r="E970" t="s">
+        <v>221</v>
+      </c>
+      <c r="F970" t="s">
+        <v>292</v>
+      </c>
+      <c r="G970" t="s">
+        <v>293</v>
+      </c>
+      <c r="H970">
+        <v>1406</v>
+      </c>
+      <c r="I970">
+        <v>0</v>
+      </c>
+      <c r="J970">
+        <v>0</v>
+      </c>
+      <c r="K970">
+        <v>0</v>
+      </c>
+      <c r="L970">
+        <v>0</v>
+      </c>
+      <c r="M970" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="971" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B971" t="s">
+        <v>221</v>
+      </c>
+      <c r="C971" t="s">
+        <v>287</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E971" t="s">
+        <v>221</v>
+      </c>
+      <c r="F971" t="s">
+        <v>287</v>
+      </c>
+      <c r="G971" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H971">
+        <v>1407</v>
+      </c>
+      <c r="I971">
+        <v>0</v>
+      </c>
+      <c r="J971">
+        <v>0</v>
+      </c>
+      <c r="K971">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="L971">
+        <v>0.35714285714285721</v>
+      </c>
+      <c r="M971" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="972" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B972" t="s">
+        <v>475</v>
+      </c>
+      <c r="C972" t="s">
+        <v>476</v>
+      </c>
+      <c r="D972" t="s">
+        <v>464</v>
+      </c>
+      <c r="E972" t="s">
+        <v>475</v>
+      </c>
+      <c r="F972" t="s">
+        <v>476</v>
+      </c>
+      <c r="G972" t="s">
+        <v>464</v>
+      </c>
+      <c r="H972">
+        <v>1408</v>
+      </c>
+      <c r="I972">
+        <v>0</v>
+      </c>
+      <c r="J972">
+        <v>0</v>
+      </c>
+      <c r="K972">
+        <v>0</v>
+      </c>
+      <c r="L972">
+        <v>0</v>
+      </c>
+      <c r="M972" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="973" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>889</v>
+      </c>
+      <c r="B973" t="s">
+        <v>865</v>
+      </c>
+      <c r="C973" t="s">
+        <v>865</v>
+      </c>
+      <c r="D973" t="s">
+        <v>865</v>
+      </c>
+      <c r="E973" t="s">
+        <v>865</v>
+      </c>
+      <c r="F973" t="s">
+        <v>865</v>
+      </c>
+      <c r="G973" t="s">
+        <v>865</v>
+      </c>
+      <c r="H973">
+        <v>1409</v>
+      </c>
+      <c r="I973">
+        <v>0</v>
+      </c>
+      <c r="J973">
+        <v>0</v>
+      </c>
+      <c r="K973">
+        <v>0</v>
+      </c>
+      <c r="L973">
+        <v>0</v>
+      </c>
+      <c r="M973" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="974" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>495</v>
+      </c>
+      <c r="B974" t="s">
+        <v>475</v>
+      </c>
+      <c r="C974" t="s">
+        <v>493</v>
+      </c>
+      <c r="D974" t="s">
+        <v>496</v>
+      </c>
+      <c r="E974" t="s">
+        <v>475</v>
+      </c>
+      <c r="F974" t="s">
+        <v>493</v>
+      </c>
+      <c r="G974" t="s">
+        <v>496</v>
+      </c>
+      <c r="H974">
+        <v>1410</v>
+      </c>
+      <c r="I974">
+        <v>0</v>
+      </c>
+      <c r="J974">
+        <v>0</v>
+      </c>
+      <c r="K974">
+        <v>0</v>
+      </c>
+      <c r="L974">
+        <v>0</v>
+      </c>
+      <c r="M974" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>506</v>
+      </c>
+      <c r="B975" t="s">
+        <v>475</v>
+      </c>
+      <c r="C975" t="s">
+        <v>501</v>
+      </c>
+      <c r="D975" t="s">
+        <v>507</v>
+      </c>
+      <c r="E975" t="s">
+        <v>475</v>
+      </c>
+      <c r="F975" t="s">
+        <v>501</v>
+      </c>
+      <c r="G975" t="s">
+        <v>507</v>
+      </c>
+      <c r="H975">
+        <v>1411</v>
+      </c>
+      <c r="I975">
+        <v>0</v>
+      </c>
+      <c r="J975">
+        <v>0</v>
+      </c>
+      <c r="K975">
+        <v>0</v>
+      </c>
+      <c r="L975">
+        <v>0</v>
+      </c>
+      <c r="M975" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>877</v>
+      </c>
+      <c r="B976" t="s">
+        <v>865</v>
+      </c>
+      <c r="C976" t="s">
+        <v>865</v>
+      </c>
+      <c r="D976" t="s">
+        <v>878</v>
+      </c>
+      <c r="E976" t="s">
+        <v>865</v>
+      </c>
+      <c r="F976" t="s">
+        <v>865</v>
+      </c>
+      <c r="G976" t="s">
+        <v>878</v>
+      </c>
+      <c r="H976">
+        <v>1412</v>
+      </c>
+      <c r="I976">
+        <v>0</v>
+      </c>
+      <c r="J976">
+        <v>0</v>
+      </c>
+      <c r="K976">
+        <v>0</v>
+      </c>
+      <c r="L976">
+        <v>0</v>
+      </c>
+      <c r="M976" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="977" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B977" t="s">
+        <v>785</v>
+      </c>
+      <c r="C977" t="s">
+        <v>785</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E977" t="s">
+        <v>785</v>
+      </c>
+      <c r="F977" t="s">
+        <v>785</v>
+      </c>
+      <c r="G977" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H977">
+        <v>1413</v>
+      </c>
+      <c r="I977">
+        <v>0</v>
+      </c>
+      <c r="J977">
+        <v>0</v>
+      </c>
+      <c r="K977">
+        <v>0.1970588235294117</v>
+      </c>
+      <c r="L977">
+        <v>0.1970588235294117</v>
+      </c>
+      <c r="M977" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="978" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>492</v>
+      </c>
+      <c r="B978" t="s">
+        <v>475</v>
+      </c>
+      <c r="C978" t="s">
+        <v>493</v>
+      </c>
+      <c r="D978" t="s">
+        <v>494</v>
+      </c>
+      <c r="E978" t="s">
+        <v>475</v>
+      </c>
+      <c r="F978" t="s">
+        <v>493</v>
+      </c>
+      <c r="G978" t="s">
+        <v>494</v>
+      </c>
+      <c r="H978">
+        <v>1414</v>
+      </c>
+      <c r="I978">
+        <v>0</v>
+      </c>
+      <c r="J978">
+        <v>0</v>
+      </c>
+      <c r="K978">
+        <v>0</v>
+      </c>
+      <c r="L978">
+        <v>0</v>
+      </c>
+      <c r="M978" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="979" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>887</v>
+      </c>
+      <c r="B979" t="s">
+        <v>865</v>
+      </c>
+      <c r="C979" t="s">
+        <v>865</v>
+      </c>
+      <c r="D979" t="s">
+        <v>888</v>
+      </c>
+      <c r="E979" t="s">
+        <v>865</v>
+      </c>
+      <c r="F979" t="s">
+        <v>865</v>
+      </c>
+      <c r="G979" t="s">
+        <v>888</v>
+      </c>
+      <c r="H979">
+        <v>1415</v>
+      </c>
+      <c r="I979">
+        <v>0</v>
+      </c>
+      <c r="J979">
+        <v>0</v>
+      </c>
+      <c r="K979">
+        <v>0</v>
+      </c>
+      <c r="L979">
+        <v>0</v>
+      </c>
+      <c r="M979" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="980" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B980" t="s">
+        <v>785</v>
+      </c>
+      <c r="C980" t="s">
+        <v>785</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E980" t="s">
+        <v>785</v>
+      </c>
+      <c r="F980" t="s">
+        <v>785</v>
+      </c>
+      <c r="G980" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H980">
+        <v>1416</v>
+      </c>
+      <c r="I980">
+        <v>0</v>
+      </c>
+      <c r="J980">
+        <v>0</v>
+      </c>
+      <c r="K980">
+        <v>0</v>
+      </c>
+      <c r="L980">
+        <v>0</v>
+      </c>
+      <c r="M980" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="981" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B981" t="s">
+        <v>785</v>
+      </c>
+      <c r="C981" t="s">
+        <v>791</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E981" t="s">
+        <v>785</v>
+      </c>
+      <c r="F981" t="s">
+        <v>791</v>
+      </c>
+      <c r="G981" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H981">
+        <v>1417</v>
+      </c>
+      <c r="I981">
+        <v>0</v>
+      </c>
+      <c r="J981">
+        <v>0</v>
+      </c>
+      <c r="K981">
+        <v>0</v>
+      </c>
+      <c r="L981">
+        <v>0</v>
+      </c>
+      <c r="M981" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="982" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B982" t="s">
+        <v>785</v>
+      </c>
+      <c r="C982" t="s">
+        <v>793</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E982" t="s">
+        <v>785</v>
+      </c>
+      <c r="F982" t="s">
+        <v>793</v>
+      </c>
+      <c r="G982" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H982">
+        <v>1418</v>
+      </c>
+      <c r="I982">
+        <v>0</v>
+      </c>
+      <c r="J982">
+        <v>0</v>
+      </c>
+      <c r="K982">
+        <v>0</v>
+      </c>
+      <c r="L982">
+        <v>0</v>
+      </c>
+      <c r="M982" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="983" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>787</v>
+      </c>
+      <c r="B983" t="s">
+        <v>785</v>
+      </c>
+      <c r="C983" t="s">
+        <v>786</v>
+      </c>
+      <c r="D983" t="s">
+        <v>788</v>
+      </c>
+      <c r="E983" t="s">
+        <v>785</v>
+      </c>
+      <c r="F983" t="s">
+        <v>786</v>
+      </c>
+      <c r="G983" t="s">
+        <v>788</v>
+      </c>
+      <c r="H983">
+        <v>1419</v>
+      </c>
+      <c r="I983">
+        <v>0</v>
+      </c>
+      <c r="J983">
+        <v>0</v>
+      </c>
+      <c r="K983">
+        <v>0</v>
+      </c>
+      <c r="L983">
+        <v>0</v>
+      </c>
+      <c r="M983" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="984" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>789</v>
+      </c>
+      <c r="B984" t="s">
+        <v>785</v>
+      </c>
+      <c r="C984" t="s">
+        <v>786</v>
+      </c>
+      <c r="D984" t="s">
+        <v>437</v>
+      </c>
+      <c r="E984" t="s">
+        <v>785</v>
+      </c>
+      <c r="F984" t="s">
+        <v>786</v>
+      </c>
+      <c r="G984" t="s">
+        <v>437</v>
+      </c>
+      <c r="H984">
+        <v>1420</v>
+      </c>
+      <c r="I984">
+        <v>0</v>
+      </c>
+      <c r="J984">
+        <v>0</v>
+      </c>
+      <c r="K984">
+        <v>0</v>
+      </c>
+      <c r="L984">
+        <v>0</v>
+      </c>
+      <c r="M984" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="985" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>820</v>
+      </c>
+      <c r="B985" t="s">
+        <v>785</v>
+      </c>
+      <c r="C985" t="s">
+        <v>818</v>
+      </c>
+      <c r="D985" t="s">
+        <v>821</v>
+      </c>
+      <c r="E985" t="s">
+        <v>785</v>
+      </c>
+      <c r="F985" t="s">
+        <v>818</v>
+      </c>
+      <c r="G985" t="s">
+        <v>821</v>
+      </c>
+      <c r="H985">
+        <v>1421</v>
+      </c>
+      <c r="I985">
+        <v>0</v>
+      </c>
+      <c r="J985">
+        <v>0</v>
+      </c>
+      <c r="K985">
+        <v>0</v>
+      </c>
+      <c r="L985">
+        <v>0</v>
+      </c>
+      <c r="M985" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="986" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B986" t="s">
+        <v>785</v>
+      </c>
+      <c r="C986" t="s">
+        <v>818</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E986" t="s">
+        <v>785</v>
+      </c>
+      <c r="F986" t="s">
+        <v>818</v>
+      </c>
+      <c r="G986" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H986">
+        <v>1422</v>
+      </c>
+      <c r="I986">
+        <v>0</v>
+      </c>
+      <c r="J986">
+        <v>0</v>
+      </c>
+      <c r="K986">
+        <v>0</v>
+      </c>
+      <c r="L986">
+        <v>0</v>
+      </c>
+      <c r="M986" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="987" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>822</v>
+      </c>
+      <c r="B987" t="s">
+        <v>785</v>
+      </c>
+      <c r="C987" t="s">
+        <v>818</v>
+      </c>
+      <c r="D987" t="s">
+        <v>823</v>
+      </c>
+      <c r="E987" t="s">
+        <v>785</v>
+      </c>
+      <c r="F987" t="s">
+        <v>818</v>
+      </c>
+      <c r="G987" t="s">
+        <v>823</v>
+      </c>
+      <c r="H987">
+        <v>1423</v>
+      </c>
+      <c r="I987">
+        <v>0</v>
+      </c>
+      <c r="J987">
+        <v>0</v>
+      </c>
+      <c r="K987">
+        <v>0</v>
+      </c>
+      <c r="L987">
+        <v>0</v>
+      </c>
+      <c r="M987" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="988" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>862</v>
+      </c>
+      <c r="B988" t="s">
+        <v>785</v>
+      </c>
+      <c r="C988" t="s">
+        <v>861</v>
+      </c>
+      <c r="D988" t="s">
+        <v>863</v>
+      </c>
+      <c r="E988" t="s">
+        <v>785</v>
+      </c>
+      <c r="F988" t="s">
+        <v>861</v>
+      </c>
+      <c r="G988" t="s">
+        <v>863</v>
+      </c>
+      <c r="H988">
+        <v>1424</v>
+      </c>
+      <c r="I988">
+        <v>0</v>
+      </c>
+      <c r="J988">
+        <v>0</v>
+      </c>
+      <c r="K988">
+        <v>0</v>
+      </c>
+      <c r="L988">
+        <v>0</v>
+      </c>
+      <c r="M988" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="989" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>803</v>
+      </c>
+      <c r="B989" t="s">
+        <v>785</v>
+      </c>
+      <c r="C989" t="s">
+        <v>801</v>
+      </c>
+      <c r="D989" t="s">
+        <v>804</v>
+      </c>
+      <c r="E989" t="s">
+        <v>785</v>
+      </c>
+      <c r="F989" t="s">
+        <v>801</v>
+      </c>
+      <c r="G989" t="s">
+        <v>805</v>
+      </c>
+      <c r="H989">
+        <v>1427</v>
+      </c>
+      <c r="I989">
+        <v>0</v>
+      </c>
+      <c r="J989">
+        <v>0</v>
+      </c>
+      <c r="K989">
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="L989">
+        <v>6.6666666666666763E-2</v>
+      </c>
+      <c r="M989" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="990" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B990" t="s">
+        <v>585</v>
+      </c>
+      <c r="C990" t="s">
+        <v>586</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E990" t="s">
+        <v>585</v>
+      </c>
+      <c r="F990" t="s">
+        <v>586</v>
+      </c>
+      <c r="G990" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H990">
+        <v>1428</v>
+      </c>
+      <c r="I990">
+        <v>0</v>
+      </c>
+      <c r="J990">
+        <v>0</v>
+      </c>
+      <c r="K990">
+        <v>0</v>
+      </c>
+      <c r="L990">
+        <v>0</v>
+      </c>
+      <c r="M990" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="991" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>862</v>
+      </c>
+      <c r="B991" t="s">
+        <v>785</v>
+      </c>
+      <c r="C991" t="s">
+        <v>861</v>
+      </c>
+      <c r="D991" t="s">
+        <v>863</v>
+      </c>
+      <c r="E991" t="s">
+        <v>785</v>
+      </c>
+      <c r="F991" t="s">
+        <v>861</v>
+      </c>
+      <c r="G991" t="s">
+        <v>863</v>
+      </c>
+      <c r="H991">
+        <v>1429</v>
+      </c>
+      <c r="I991">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>0</v>
+      </c>
+      <c r="K991">
+        <v>0</v>
+      </c>
+      <c r="L991">
+        <v>0</v>
+      </c>
+      <c r="M991" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="992" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>343</v>
+      </c>
+      <c r="B992" t="s">
+        <v>317</v>
+      </c>
+      <c r="C992" t="s">
+        <v>342</v>
+      </c>
+      <c r="D992" t="s">
+        <v>344</v>
+      </c>
+      <c r="E992" t="s">
+        <v>317</v>
+      </c>
+      <c r="F992" t="s">
+        <v>342</v>
+      </c>
+      <c r="G992" t="s">
+        <v>344</v>
+      </c>
+      <c r="H992">
+        <v>1431</v>
+      </c>
+      <c r="I992">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>0</v>
+      </c>
+      <c r="K992">
+        <v>0</v>
+      </c>
+      <c r="L992">
+        <v>0</v>
+      </c>
+      <c r="M992" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="993" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B993" t="s">
+        <v>317</v>
+      </c>
+      <c r="C993" t="s">
+        <v>342</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E993" t="s">
+        <v>317</v>
+      </c>
+      <c r="F993" t="s">
+        <v>342</v>
+      </c>
+      <c r="G993" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H993">
+        <v>1432</v>
+      </c>
+      <c r="I993">
+        <v>0</v>
+      </c>
+      <c r="J993">
+        <v>0</v>
+      </c>
+      <c r="K993">
+        <v>0</v>
+      </c>
+      <c r="L993">
+        <v>0</v>
+      </c>
+      <c r="M993" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="994" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B994" t="s">
+        <v>785</v>
+      </c>
+      <c r="C994" t="s">
+        <v>785</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E994" t="s">
+        <v>785</v>
+      </c>
+      <c r="F994" t="s">
+        <v>785</v>
+      </c>
+      <c r="G994" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H994">
+        <v>1433</v>
+      </c>
+      <c r="I994">
+        <v>0</v>
+      </c>
+      <c r="J994">
+        <v>0</v>
+      </c>
+      <c r="K994">
+        <v>0</v>
+      </c>
+      <c r="L994">
+        <v>0</v>
+      </c>
+      <c r="M994" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="995" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>811</v>
+      </c>
+      <c r="B995" t="s">
+        <v>785</v>
+      </c>
+      <c r="C995" t="s">
+        <v>801</v>
+      </c>
+      <c r="D995" t="s">
+        <v>812</v>
+      </c>
+      <c r="E995" t="s">
+        <v>785</v>
+      </c>
+      <c r="F995" t="s">
+        <v>801</v>
+      </c>
+      <c r="G995" t="s">
+        <v>812</v>
+      </c>
+      <c r="H995">
+        <v>1434</v>
+      </c>
+      <c r="I995">
+        <v>0</v>
+      </c>
+      <c r="J995">
+        <v>0</v>
+      </c>
+      <c r="K995">
+        <v>0</v>
+      </c>
+      <c r="L995">
+        <v>0</v>
+      </c>
+      <c r="M995" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="996" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B996" t="s">
+        <v>785</v>
+      </c>
+      <c r="C996" t="s">
+        <v>785</v>
+      </c>
+      <c r="D996" t="s">
+        <v>810</v>
+      </c>
+      <c r="E996" t="s">
+        <v>785</v>
+      </c>
+      <c r="F996" t="s">
+        <v>785</v>
+      </c>
+      <c r="G996" t="s">
+        <v>810</v>
+      </c>
+      <c r="H996">
+        <v>1435</v>
+      </c>
+      <c r="I996">
+        <v>0</v>
+      </c>
+      <c r="J996">
+        <v>0</v>
+      </c>
+      <c r="K996">
+        <v>0</v>
+      </c>
+      <c r="L996">
+        <v>0</v>
+      </c>
+      <c r="M996" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="997" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B997" t="s">
+        <v>785</v>
+      </c>
+      <c r="C997" t="s">
+        <v>849</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E997" t="s">
+        <v>785</v>
+      </c>
+      <c r="F997" t="s">
+        <v>849</v>
+      </c>
+      <c r="G997" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H997">
+        <v>1436</v>
+      </c>
+      <c r="I997">
+        <v>0</v>
+      </c>
+      <c r="J997">
+        <v>0</v>
+      </c>
+      <c r="K997">
+        <v>0</v>
+      </c>
+      <c r="L997">
+        <v>0</v>
+      </c>
+      <c r="M997" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="998" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>851</v>
+      </c>
+      <c r="B998" t="s">
+        <v>785</v>
+      </c>
+      <c r="C998" t="s">
+        <v>849</v>
+      </c>
+      <c r="D998" t="s">
+        <v>852</v>
+      </c>
+      <c r="E998" t="s">
+        <v>785</v>
+      </c>
+      <c r="F998" t="s">
+        <v>849</v>
+      </c>
+      <c r="G998" t="s">
+        <v>852</v>
+      </c>
+      <c r="H998">
+        <v>1437</v>
+      </c>
+      <c r="I998">
+        <v>0</v>
+      </c>
+      <c r="J998">
+        <v>0</v>
+      </c>
+      <c r="K998">
+        <v>0</v>
+      </c>
+      <c r="L998">
+        <v>0</v>
+      </c>
+      <c r="M998" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="999" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B999" t="s">
+        <v>785</v>
+      </c>
+      <c r="C999" t="s">
+        <v>861</v>
+      </c>
+      <c r="D999" t="s">
+        <v>861</v>
+      </c>
+      <c r="E999" t="s">
+        <v>785</v>
+      </c>
+      <c r="F999" t="s">
+        <v>861</v>
+      </c>
+      <c r="G999" t="s">
+        <v>861</v>
+      </c>
+      <c r="H999">
+        <v>1438</v>
+      </c>
+      <c r="I999">
+        <v>0</v>
+      </c>
+      <c r="J999">
+        <v>0</v>
+      </c>
+      <c r="K999">
+        <v>0</v>
+      </c>
+      <c r="L999">
+        <v>0</v>
+      </c>
+      <c r="M999" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>785</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>838</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>785</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>838</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H1000">
+        <v>1439</v>
+      </c>
+      <c r="I1000">
+        <v>0</v>
+      </c>
+      <c r="J1000">
+        <v>0</v>
+      </c>
+      <c r="K1000">
+        <v>4.4444444444444509E-2</v>
+      </c>
+      <c r="L1000">
+        <v>4.4444444444444509E-2</v>
+      </c>
+      <c r="M1000" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1001">
+        <v>1440</v>
+      </c>
+      <c r="I1001">
+        <v>0</v>
+      </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
+      <c r="K1001">
+        <v>0</v>
+      </c>
+      <c r="L1001">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1002">
+        <v>1441</v>
+      </c>
+      <c r="I1002">
+        <v>0</v>
+      </c>
+      <c r="J1002">
+        <v>0</v>
+      </c>
+      <c r="K1002">
+        <v>0</v>
+      </c>
+      <c r="L1002">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1003">
+        <v>1442</v>
+      </c>
+      <c r="I1003">
+        <v>0</v>
+      </c>
+      <c r="J1003">
+        <v>0</v>
+      </c>
+      <c r="K1003">
+        <v>0</v>
+      </c>
+      <c r="L1003">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1004">
+        <v>1443</v>
+      </c>
+      <c r="I1004">
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
+      <c r="K1004">
+        <v>0</v>
+      </c>
+      <c r="L1004">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1005">
+        <v>1444</v>
+      </c>
+      <c r="I1005">
+        <v>0</v>
+      </c>
+      <c r="J1005">
+        <v>0</v>
+      </c>
+      <c r="K1005">
+        <v>0</v>
+      </c>
+      <c r="L1005">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>970</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>971</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>971</v>
+      </c>
+      <c r="H1006">
+        <v>1447</v>
+      </c>
+      <c r="I1006">
+        <v>0</v>
+      </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
+      <c r="K1006">
+        <v>0</v>
+      </c>
+      <c r="L1006">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1007">
+        <v>1449</v>
+      </c>
+      <c r="I1007">
+        <v>0</v>
+      </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
+      <c r="K1007">
+        <v>0</v>
+      </c>
+      <c r="L1007">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="s">
+        <v>932</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M921" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M989" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>